--- a/elo/knapsack/fantasydf_actual.xlsx
+++ b/elo/knapsack/fantasydf_actual.xlsx
@@ -40,91 +40,97 @@
     <t>Alexander BOLSHUNOV</t>
   </si>
   <si>
+    <t>Ivan YAKIMUSHKIN</t>
+  </si>
+  <si>
+    <t>Evgeniy BELOV</t>
+  </si>
+  <si>
+    <t>Alexey CHERVOTKIN</t>
+  </si>
+  <si>
+    <t>Andrey MELNICHENKO</t>
+  </si>
+  <si>
+    <t>Maurice MANIFICAT</t>
+  </si>
+  <si>
     <t>Denis SPITSOV</t>
   </si>
   <si>
-    <t>Ivan YAKIMUSHKIN</t>
-  </si>
-  <si>
-    <t>Alexey CHERVOTKIN</t>
-  </si>
-  <si>
     <t>Artem MALTSEV</t>
   </si>
   <si>
-    <t>Maurice MANIFICAT</t>
-  </si>
-  <si>
-    <t>Evgeniy BELOV</t>
-  </si>
-  <si>
-    <t>Andrey MELNICHENKO</t>
+    <t>Ilia SEMIKOV</t>
+  </si>
+  <si>
+    <t>Lucas BOEGL</t>
   </si>
   <si>
     <t>Hugo LAPALUS</t>
   </si>
   <si>
-    <t>Janosch BRUGGER</t>
+    <t>Clement PARISSE</t>
   </si>
   <si>
     <t>Florian NOTZ</t>
   </si>
   <si>
+    <t>Alexander TERENTEV</t>
+  </si>
+  <si>
+    <t>Gus SCHUMACHER</t>
+  </si>
+  <si>
+    <t>Francesco DE FABIANI</t>
+  </si>
+  <si>
+    <t>Dario COLOGNA</t>
+  </si>
+  <si>
     <t>Jonas DOBLER</t>
   </si>
   <si>
-    <t>Lucas BOEGL</t>
-  </si>
-  <si>
-    <t>Gus SCHUMACHER</t>
-  </si>
-  <si>
-    <t>Alexander TERENTEV</t>
-  </si>
-  <si>
-    <t>Clement PARISSE</t>
+    <t>Federico PELLEGRINO</t>
+  </si>
+  <si>
+    <t>Oskar SVENSSON</t>
+  </si>
+  <si>
+    <t>William POROMAA</t>
+  </si>
+  <si>
+    <t>Calle HALFVARSSON</t>
+  </si>
+  <si>
+    <t>Jean Marc GAILLARD</t>
+  </si>
+  <si>
+    <t>Giandomenico SALVADORI</t>
+  </si>
+  <si>
+    <t>Markus VUORELA</t>
+  </si>
+  <si>
+    <t>Beda KLEE</t>
   </si>
   <si>
     <t>Andrew MUSGRAVE</t>
   </si>
   <si>
-    <t>Dario COLOGNA</t>
-  </si>
-  <si>
-    <t>Oskar SVENSSON</t>
-  </si>
-  <si>
-    <t>Calle HALFVARSSON</t>
-  </si>
-  <si>
-    <t>Giandomenico SALVADORI</t>
-  </si>
-  <si>
-    <t>Francesco DE FABIANI</t>
-  </si>
-  <si>
-    <t>Ilia SEMIKOV</t>
-  </si>
-  <si>
-    <t>Markus VUORELA</t>
-  </si>
-  <si>
-    <t>Federico PELLEGRINO</t>
-  </si>
-  <si>
-    <t>Jean Marc GAILLARD</t>
-  </si>
-  <si>
-    <t>William POROMAA</t>
-  </si>
-  <si>
     <t>Jules LAPIERRE</t>
   </si>
   <si>
+    <t>Adrien BACKSCHEIDER</t>
+  </si>
+  <si>
     <t>Imanol ROJO</t>
   </si>
   <si>
-    <t>Adrien BACKSCHEIDER</t>
+    <t>Yulia STUPAK</t>
+  </si>
+  <si>
+    <t>Ebba ANDERSSON</t>
   </si>
   <si>
     <t>Jessie DIGGINS</t>
@@ -133,88 +139,82 @@
     <t>Rosie BRENNAN</t>
   </si>
   <si>
-    <t>Ebba ANDERSSON</t>
-  </si>
-  <si>
-    <t>Yulia STUPAK</t>
-  </si>
-  <si>
     <t>Krista PARMAKOSKI</t>
   </si>
   <si>
     <t>Tatiana SORINA</t>
   </si>
   <si>
+    <t>Alisa ZHAMBALOVA</t>
+  </si>
+  <si>
+    <t>Katharina HENNIG</t>
+  </si>
+  <si>
+    <t>Katerina RAZYMOVA</t>
+  </si>
+  <si>
+    <t>Natalia NEPRYAEVA</t>
+  </si>
+  <si>
+    <t>Yana KIRPICHENKO</t>
+  </si>
+  <si>
+    <t>Teresa STADLOBER</t>
+  </si>
+  <si>
+    <t>Frida KARLSSON</t>
+  </si>
+  <si>
+    <t>Anamarija LAMPIC</t>
+  </si>
+  <si>
+    <t>Johanna MATINTALO</t>
+  </si>
+  <si>
+    <t>Nadine FAEHNDRICH</t>
+  </si>
+  <si>
+    <t>Anna COMARELLA</t>
+  </si>
+  <si>
     <t>Delphine CLAUDEL</t>
   </si>
   <si>
-    <t>Teresa STADLOBER</t>
-  </si>
-  <si>
-    <t>Frida KARLSSON</t>
-  </si>
-  <si>
-    <t>Alisa ZHAMBALOVA</t>
-  </si>
-  <si>
-    <t>Katerina RAZYMOVA</t>
-  </si>
-  <si>
-    <t>Anna COMARELLA</t>
-  </si>
-  <si>
-    <t>Katharina HENNIG</t>
+    <t>Maja DAHLQVIST</t>
+  </si>
+  <si>
+    <t>Katharine OGDEN</t>
   </si>
   <si>
     <t>Lucia SCARDONI</t>
   </si>
   <si>
-    <t>Maja DAHLQVIST</t>
-  </si>
-  <si>
-    <t>Yana KIRPICHENKO</t>
+    <t>Hailey SWIRBUL</t>
+  </si>
+  <si>
+    <t>Linn SVAHN</t>
+  </si>
+  <si>
+    <t>Hristina MATSOKINA</t>
+  </si>
+  <si>
+    <t>Emma RIBOM</t>
+  </si>
+  <si>
+    <t>Patricija EIDUKA</t>
+  </si>
+  <si>
+    <t>Izabela MARCISZ</t>
   </si>
   <si>
     <t>Anna NECHAEVSKAYA</t>
   </si>
   <si>
-    <t>Katharine OGDEN</t>
-  </si>
-  <si>
-    <t>Anamarija LAMPIC</t>
-  </si>
-  <si>
-    <t>Hailey SWIRBUL</t>
-  </si>
-  <si>
-    <t>Natalia NEPRYAEVA</t>
-  </si>
-  <si>
-    <t>Patricija EIDUKA</t>
-  </si>
-  <si>
-    <t>Izabela MARCISZ</t>
-  </si>
-  <si>
-    <t>Nadine FAEHNDRICH</t>
-  </si>
-  <si>
-    <t>Julia KERN</t>
-  </si>
-  <si>
-    <t>Johanna MATINTALO</t>
-  </si>
-  <si>
-    <t>Hristina MATSOKINA</t>
-  </si>
-  <si>
-    <t>Emma RIBOM</t>
-  </si>
-  <si>
-    <t>Moa OLSSON</t>
-  </si>
-  <si>
-    <t>Ilaria DEBERTOLIS</t>
+    <t>Jonna SUNDLING</t>
+  </si>
+  <si>
+    <t>Laurien VAN DER GRAAFF</t>
   </si>
   <si>
     <t>m</t>
@@ -624,7 +624,7 @@
         <v>67</v>
       </c>
       <c r="F2">
-        <v>1559.051356850938</v>
+        <v>1553.467382604635</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -641,16 +641,16 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>3482280</v>
+        <v>3482105</v>
       </c>
       <c r="D3">
-        <v>2646</v>
+        <v>5172</v>
       </c>
       <c r="E3" t="s">
         <v>67</v>
       </c>
       <c r="F3">
-        <v>1497.795805041888</v>
+        <v>1459.35692133401</v>
       </c>
       <c r="G3">
         <v>46</v>
@@ -667,16 +667,16 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>3482105</v>
+        <v>3481161</v>
       </c>
       <c r="D4">
-        <v>5172</v>
+        <v>3443</v>
       </c>
       <c r="E4" t="s">
         <v>67</v>
       </c>
       <c r="F4">
-        <v>1464.756116074846</v>
+        <v>1469.425719390575</v>
       </c>
       <c r="G4">
         <v>43</v>
@@ -702,7 +702,7 @@
         <v>67</v>
       </c>
       <c r="F5">
-        <v>1403.307872116119</v>
+        <v>1416.28774144958</v>
       </c>
       <c r="G5">
         <v>40</v>
@@ -719,16 +719,16 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>3481432</v>
+        <v>3481803</v>
       </c>
       <c r="D6">
-        <v>4522</v>
+        <v>7488</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
       </c>
       <c r="F6">
-        <v>1446.291644505356</v>
+        <v>1420.651593332222</v>
       </c>
       <c r="G6">
         <v>37</v>
@@ -754,7 +754,7 @@
         <v>67</v>
       </c>
       <c r="F7">
-        <v>1501.120482756574</v>
+        <v>1401.01901102471</v>
       </c>
       <c r="G7">
         <v>34</v>
@@ -771,16 +771,16 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>3481161</v>
+        <v>3482280</v>
       </c>
       <c r="D8">
-        <v>3443</v>
+        <v>2646</v>
       </c>
       <c r="E8" t="s">
         <v>67</v>
       </c>
       <c r="F8">
-        <v>1484.830547212423</v>
+        <v>1413.801479498963</v>
       </c>
       <c r="G8">
         <v>32</v>
@@ -797,16 +797,16 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>3481803</v>
+        <v>3481432</v>
       </c>
       <c r="D9">
-        <v>7488</v>
+        <v>4522</v>
       </c>
       <c r="E9" t="s">
         <v>67</v>
       </c>
       <c r="F9">
-        <v>1529.166229215472</v>
+        <v>1393.290714128157</v>
       </c>
       <c r="G9">
         <v>30</v>
@@ -823,16 +823,16 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>3190529</v>
+        <v>3481988</v>
       </c>
       <c r="D10">
-        <v>471</v>
+        <v>1838</v>
       </c>
       <c r="E10" t="s">
         <v>67</v>
       </c>
       <c r="F10">
-        <v>1396.138619998833</v>
+        <v>1404.252360845846</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -849,16 +849,16 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>3200676</v>
+        <v>3200205</v>
       </c>
       <c r="D11">
-        <v>225</v>
+        <v>1319</v>
       </c>
       <c r="E11" t="s">
         <v>67</v>
       </c>
       <c r="F11">
-        <v>1299.963242002257</v>
+        <v>1390.467596204614</v>
       </c>
       <c r="G11">
         <v>26</v>
@@ -875,16 +875,16 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>3200376</v>
+        <v>3190529</v>
       </c>
       <c r="D12">
-        <v>753</v>
+        <v>471</v>
       </c>
       <c r="E12" t="s">
         <v>67</v>
       </c>
       <c r="F12">
-        <v>1445.311427414019</v>
+        <v>1344.943457738786</v>
       </c>
       <c r="G12">
         <v>24</v>
@@ -901,16 +901,16 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>3200356</v>
+        <v>3190302</v>
       </c>
       <c r="D13">
-        <v>579</v>
+        <v>1470</v>
       </c>
       <c r="E13" t="s">
         <v>67</v>
       </c>
       <c r="F13">
-        <v>1405.816454831317</v>
+        <v>1380.604815484171</v>
       </c>
       <c r="G13">
         <v>22</v>
@@ -927,16 +927,16 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>3200205</v>
+        <v>3200376</v>
       </c>
       <c r="D14">
-        <v>1319</v>
+        <v>753</v>
       </c>
       <c r="E14" t="s">
         <v>67</v>
       </c>
       <c r="F14">
-        <v>1427.817863084869</v>
+        <v>1337.191941923889</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -953,16 +953,16 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>3530882</v>
+        <v>3482806</v>
       </c>
       <c r="D15">
-        <v>592</v>
+        <v>1099</v>
       </c>
       <c r="E15" t="s">
         <v>67</v>
       </c>
       <c r="F15">
-        <v>1325.528616826018</v>
+        <v>1296.48838524213</v>
       </c>
       <c r="G15">
         <v>18</v>
@@ -979,16 +979,16 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>3482806</v>
+        <v>3530882</v>
       </c>
       <c r="D16">
-        <v>1099</v>
+        <v>592</v>
       </c>
       <c r="E16" t="s">
         <v>67</v>
       </c>
       <c r="F16">
-        <v>1299.295979259303</v>
+        <v>1302.558256547488</v>
       </c>
       <c r="G16">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>3190302</v>
+        <v>3290379</v>
       </c>
       <c r="D17">
-        <v>1470</v>
+        <v>3407</v>
       </c>
       <c r="E17" t="s">
         <v>67</v>
       </c>
       <c r="F17">
-        <v>1490.042678541823</v>
+        <v>1473.792045617231</v>
       </c>
       <c r="G17">
         <v>15</v>
@@ -1031,16 +1031,16 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>3220002</v>
+        <v>3510023</v>
       </c>
       <c r="D18">
-        <v>5122</v>
+        <v>4296</v>
       </c>
       <c r="E18" t="s">
         <v>67</v>
       </c>
       <c r="F18">
-        <v>1453.361887908351</v>
+        <v>1476.030285073965</v>
       </c>
       <c r="G18">
         <v>14</v>
@@ -1057,16 +1057,16 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>3510023</v>
+        <v>3200356</v>
       </c>
       <c r="D19">
-        <v>4296</v>
+        <v>579</v>
       </c>
       <c r="E19" t="s">
         <v>67</v>
       </c>
       <c r="F19">
-        <v>1517.260126978311</v>
+        <v>1357.904822998978</v>
       </c>
       <c r="G19">
         <v>13</v>
@@ -1083,16 +1083,16 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>3501255</v>
+        <v>3290326</v>
       </c>
       <c r="D20">
-        <v>978</v>
+        <v>11514</v>
       </c>
       <c r="E20" t="s">
         <v>67</v>
       </c>
       <c r="F20">
-        <v>1291.659778367698</v>
+        <v>1356.095303109623</v>
       </c>
       <c r="G20">
         <v>12</v>
@@ -1109,16 +1109,16 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>3500664</v>
+        <v>3501255</v>
       </c>
       <c r="D21">
-        <v>2131</v>
+        <v>978</v>
       </c>
       <c r="E21" t="s">
         <v>67</v>
       </c>
       <c r="F21">
-        <v>1446.686688178107</v>
+        <v>1354.471282804448</v>
       </c>
       <c r="G21">
         <v>11</v>
@@ -1135,16 +1135,16 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>3290407</v>
+        <v>3501741</v>
       </c>
       <c r="D22">
-        <v>432</v>
+        <v>990</v>
       </c>
       <c r="E22" t="s">
         <v>67</v>
       </c>
       <c r="F22">
-        <v>1363.865072770695</v>
+        <v>1340.816037486382</v>
       </c>
       <c r="G22">
         <v>10</v>
@@ -1161,16 +1161,16 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>3290379</v>
+        <v>3500664</v>
       </c>
       <c r="D23">
-        <v>3407</v>
+        <v>2131</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
       </c>
       <c r="F23">
-        <v>1435.579375934413</v>
+        <v>1480.059919186682</v>
       </c>
       <c r="G23">
         <v>9</v>
@@ -1187,16 +1187,16 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>3481988</v>
+        <v>1345875</v>
       </c>
       <c r="D24">
-        <v>1838</v>
+        <v>900</v>
       </c>
       <c r="E24" t="s">
         <v>67</v>
       </c>
       <c r="F24">
-        <v>1307.817417267781</v>
+        <v>1448.038699142063</v>
       </c>
       <c r="G24">
         <v>8</v>
@@ -1213,16 +1213,16 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>3181007</v>
+        <v>3290407</v>
       </c>
       <c r="D25">
-        <v>233</v>
+        <v>432</v>
       </c>
       <c r="E25" t="s">
         <v>67</v>
       </c>
       <c r="F25">
-        <v>1304.917058989445</v>
+        <v>1351.975748316459</v>
       </c>
       <c r="G25">
         <v>7</v>
@@ -1239,16 +1239,16 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>3290326</v>
+        <v>3181007</v>
       </c>
       <c r="D26">
-        <v>11514</v>
+        <v>233</v>
       </c>
       <c r="E26" t="s">
         <v>67</v>
       </c>
       <c r="F26">
-        <v>1353.751656373174</v>
+        <v>1312.289727462367</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -1265,16 +1265,16 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>1345875</v>
+        <v>3510534</v>
       </c>
       <c r="D27">
-        <v>900</v>
+        <v>309</v>
       </c>
       <c r="E27" t="s">
         <v>67</v>
       </c>
       <c r="F27">
-        <v>1471.212312082683</v>
+        <v>1356.923319893914</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -1291,16 +1291,16 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>3501741</v>
+        <v>3220002</v>
       </c>
       <c r="D28">
-        <v>990</v>
+        <v>5122</v>
       </c>
       <c r="E28" t="s">
         <v>67</v>
       </c>
       <c r="F28">
-        <v>1316.982687936384</v>
+        <v>1409.245423522446</v>
       </c>
       <c r="G28">
         <v>4</v>
@@ -1326,7 +1326,7 @@
         <v>67</v>
       </c>
       <c r="F29">
-        <v>1387.026966252613</v>
+        <v>1350.75157543677</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -1343,16 +1343,16 @@
         <v>35</v>
       </c>
       <c r="C30">
-        <v>3490145</v>
+        <v>3190268</v>
       </c>
       <c r="D30">
-        <v>232</v>
+        <v>861</v>
       </c>
       <c r="E30" t="s">
         <v>67</v>
       </c>
       <c r="F30">
-        <v>1287.674901981716</v>
+        <v>1370.263199723416</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1369,16 +1369,16 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>3190268</v>
+        <v>3490145</v>
       </c>
       <c r="D31">
-        <v>861</v>
+        <v>232</v>
       </c>
       <c r="E31" t="s">
         <v>67</v>
       </c>
       <c r="F31">
-        <v>1453.26499178727</v>
+        <v>1257.85980215899</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1389,22 +1389,22 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
       </c>
       <c r="C32">
-        <v>3535410</v>
+        <v>3486239</v>
       </c>
       <c r="D32">
-        <v>12712</v>
+        <v>7809</v>
       </c>
       <c r="E32" t="s">
         <v>68</v>
       </c>
       <c r="F32">
-        <v>1531.537011116483</v>
+        <v>1437.849802755422</v>
       </c>
       <c r="G32">
         <v>50</v>
@@ -1415,22 +1415,22 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
       </c>
       <c r="C33">
-        <v>3535316</v>
+        <v>3505990</v>
       </c>
       <c r="D33">
-        <v>10007</v>
+        <v>15649</v>
       </c>
       <c r="E33" t="s">
         <v>68</v>
       </c>
       <c r="F33">
-        <v>1459.635307022128</v>
+        <v>1484.367382216556</v>
       </c>
       <c r="G33">
         <v>46</v>
@@ -1441,22 +1441,22 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
       </c>
       <c r="C34">
-        <v>3505990</v>
+        <v>3535410</v>
       </c>
       <c r="D34">
-        <v>15649</v>
+        <v>12712</v>
       </c>
       <c r="E34" t="s">
         <v>68</v>
       </c>
       <c r="F34">
-        <v>1491.684538503681</v>
+        <v>1462.307580891505</v>
       </c>
       <c r="G34">
         <v>43</v>
@@ -1467,22 +1467,22 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
       </c>
       <c r="C35">
-        <v>3486239</v>
+        <v>3535316</v>
       </c>
       <c r="D35">
-        <v>7809</v>
+        <v>10007</v>
       </c>
       <c r="E35" t="s">
         <v>68</v>
       </c>
       <c r="F35">
-        <v>1427.527175415134</v>
+        <v>1414.416253511009</v>
       </c>
       <c r="G35">
         <v>40</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
         <v>41</v>
@@ -1508,7 +1508,7 @@
         <v>68</v>
       </c>
       <c r="F36">
-        <v>1510.719854284865</v>
+        <v>1510.904155905768</v>
       </c>
       <c r="G36">
         <v>37</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
@@ -1534,7 +1534,7 @@
         <v>68</v>
       </c>
       <c r="F37">
-        <v>1350.90719582178</v>
+        <v>1333.715889798235</v>
       </c>
       <c r="G37">
         <v>34</v>
@@ -1545,22 +1545,22 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
       </c>
       <c r="C38">
-        <v>3195219</v>
+        <v>3485862</v>
       </c>
       <c r="D38">
-        <v>965</v>
+        <v>1015</v>
       </c>
       <c r="E38" t="s">
         <v>68</v>
       </c>
       <c r="F38">
-        <v>1370.019624708342</v>
+        <v>1385.134590741715</v>
       </c>
       <c r="G38">
         <v>32</v>
@@ -1571,22 +1571,22 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
       </c>
       <c r="C39">
-        <v>3055067</v>
+        <v>3205460</v>
       </c>
       <c r="D39">
-        <v>6614</v>
+        <v>4757</v>
       </c>
       <c r="E39" t="s">
         <v>68</v>
       </c>
       <c r="F39">
-        <v>1487.238666599709</v>
+        <v>1459.909914274613</v>
       </c>
       <c r="G39">
         <v>30</v>
@@ -1597,22 +1597,22 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
       </c>
       <c r="C40">
-        <v>3506154</v>
+        <v>3155314</v>
       </c>
       <c r="D40">
-        <v>13508</v>
+        <v>1975</v>
       </c>
       <c r="E40" t="s">
         <v>68</v>
       </c>
       <c r="F40">
-        <v>1399.98628111669</v>
+        <v>1364.704966319022</v>
       </c>
       <c r="G40">
         <v>28</v>
@@ -1623,22 +1623,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
       </c>
       <c r="C41">
-        <v>3485862</v>
+        <v>3486010</v>
       </c>
       <c r="D41">
-        <v>1015</v>
+        <v>16746</v>
       </c>
       <c r="E41" t="s">
         <v>68</v>
       </c>
       <c r="F41">
-        <v>1345.851400500019</v>
+        <v>1497.836979099058</v>
       </c>
       <c r="G41">
         <v>26</v>
@@ -1649,22 +1649,22 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
       </c>
       <c r="C42">
-        <v>3155314</v>
+        <v>3486314</v>
       </c>
       <c r="D42">
-        <v>1975</v>
+        <v>730</v>
       </c>
       <c r="E42" t="s">
         <v>68</v>
       </c>
       <c r="F42">
-        <v>1382.758654967609</v>
+        <v>1361.602908820812</v>
       </c>
       <c r="G42">
         <v>24</v>
@@ -1675,22 +1675,22 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
       </c>
       <c r="C43">
-        <v>3295322</v>
+        <v>3055067</v>
       </c>
       <c r="D43">
-        <v>429</v>
+        <v>6614</v>
       </c>
       <c r="E43" t="s">
         <v>68</v>
       </c>
       <c r="F43">
-        <v>1341.785924882431</v>
+        <v>1477.906902475029</v>
       </c>
       <c r="G43">
         <v>22</v>
@@ -1701,22 +1701,22 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
       </c>
       <c r="C44">
-        <v>3205460</v>
+        <v>3506154</v>
       </c>
       <c r="D44">
-        <v>4757</v>
+        <v>13508</v>
       </c>
       <c r="E44" t="s">
         <v>68</v>
       </c>
       <c r="F44">
-        <v>1403.584404647088</v>
+        <v>1430.027162991457</v>
       </c>
       <c r="G44">
         <v>20</v>
@@ -1727,22 +1727,22 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
       </c>
       <c r="C45">
-        <v>3295157</v>
+        <v>3565062</v>
       </c>
       <c r="D45">
-        <v>2630</v>
+        <v>12607</v>
       </c>
       <c r="E45" t="s">
         <v>68</v>
       </c>
       <c r="F45">
-        <v>1260.297117715976</v>
+        <v>1423.256617383354</v>
       </c>
       <c r="G45">
         <v>18</v>
@@ -1753,22 +1753,22 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
       </c>
       <c r="C46">
-        <v>3505800</v>
+        <v>3185579</v>
       </c>
       <c r="D46">
-        <v>4816</v>
+        <v>622</v>
       </c>
       <c r="E46" t="s">
         <v>68</v>
       </c>
       <c r="F46">
-        <v>1328.178470971151</v>
+        <v>1375.31142443003</v>
       </c>
       <c r="G46">
         <v>16</v>
@@ -1779,22 +1779,22 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
       </c>
       <c r="C47">
-        <v>3486314</v>
+        <v>3515221</v>
       </c>
       <c r="D47">
-        <v>730</v>
+        <v>10716</v>
       </c>
       <c r="E47" t="s">
         <v>68</v>
       </c>
       <c r="F47">
-        <v>1328.671264363307</v>
+        <v>1398.290417513512</v>
       </c>
       <c r="G47">
         <v>15</v>
@@ -1805,22 +1805,22 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
       </c>
       <c r="C48">
-        <v>3485849</v>
+        <v>3295322</v>
       </c>
       <c r="D48">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="E48" t="s">
         <v>68</v>
       </c>
       <c r="F48">
-        <v>1372.291128605648</v>
+        <v>1324.18885536917</v>
       </c>
       <c r="G48">
         <v>14</v>
@@ -1831,22 +1831,22 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
       <c r="C49">
-        <v>3535601</v>
+        <v>3195219</v>
       </c>
       <c r="D49">
-        <v>217</v>
+        <v>965</v>
       </c>
       <c r="E49" t="s">
         <v>68</v>
       </c>
       <c r="F49">
-        <v>1278.529966012936</v>
+        <v>1307.718304533136</v>
       </c>
       <c r="G49">
         <v>13</v>
@@ -1857,22 +1857,22 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
       <c r="C50">
-        <v>3565062</v>
+        <v>3505800</v>
       </c>
       <c r="D50">
-        <v>12607</v>
+        <v>4816</v>
       </c>
       <c r="E50" t="s">
         <v>68</v>
       </c>
       <c r="F50">
-        <v>1380.497992336544</v>
+        <v>1339.614732633698</v>
       </c>
       <c r="G50">
         <v>12</v>
@@ -1883,22 +1883,22 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
       <c r="C51">
-        <v>3535602</v>
+        <v>3535601</v>
       </c>
       <c r="D51">
-        <v>1197</v>
+        <v>217</v>
       </c>
       <c r="E51" t="s">
         <v>68</v>
       </c>
       <c r="F51">
-        <v>1347.785976701811</v>
+        <v>1284.5602511403</v>
       </c>
       <c r="G51">
         <v>11</v>
@@ -1909,22 +1909,22 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
       </c>
       <c r="C52">
-        <v>3486010</v>
+        <v>3295157</v>
       </c>
       <c r="D52">
-        <v>16746</v>
+        <v>2630</v>
       </c>
       <c r="E52" t="s">
         <v>68</v>
       </c>
       <c r="F52">
-        <v>1475.956385418714</v>
+        <v>1287.171471236471</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -1935,22 +1935,22 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B53" t="s">
         <v>58</v>
       </c>
       <c r="C53">
-        <v>3555052</v>
+        <v>3535602</v>
       </c>
       <c r="D53">
-        <v>368</v>
+        <v>1197</v>
       </c>
       <c r="E53" t="s">
         <v>68</v>
       </c>
       <c r="F53">
-        <v>1310.288543277876</v>
+        <v>1307.691184047806</v>
       </c>
       <c r="G53">
         <v>9</v>
@@ -1961,22 +1961,22 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
       </c>
       <c r="C54">
-        <v>3435197</v>
+        <v>3506166</v>
       </c>
       <c r="D54">
-        <v>229</v>
+        <v>4946</v>
       </c>
       <c r="E54" t="s">
         <v>68</v>
       </c>
       <c r="F54">
-        <v>1293.506614139653</v>
+        <v>1361.937465670712</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -1987,22 +1987,22 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
       </c>
       <c r="C55">
-        <v>3515221</v>
+        <v>3486563</v>
       </c>
       <c r="D55">
-        <v>10716</v>
+        <v>540</v>
       </c>
       <c r="E55" t="s">
         <v>68</v>
       </c>
       <c r="F55">
-        <v>1363.241984775892</v>
+        <v>1302.921022639933</v>
       </c>
       <c r="G55">
         <v>7</v>
@@ -2013,22 +2013,22 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
       </c>
       <c r="C56">
-        <v>3535562</v>
+        <v>3506008</v>
       </c>
       <c r="D56">
-        <v>2809</v>
+        <v>2750</v>
       </c>
       <c r="E56" t="s">
         <v>68</v>
       </c>
       <c r="F56">
-        <v>1267.594616414545</v>
+        <v>1357.654102954614</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -2039,22 +2039,22 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B57" t="s">
         <v>62</v>
       </c>
       <c r="C57">
-        <v>3185579</v>
+        <v>3555052</v>
       </c>
       <c r="D57">
-        <v>622</v>
+        <v>368</v>
       </c>
       <c r="E57" t="s">
         <v>68</v>
       </c>
       <c r="F57">
-        <v>1262.700684497259</v>
+        <v>1278.904428762767</v>
       </c>
       <c r="G57">
         <v>5</v>
@@ -2065,22 +2065,22 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
       </c>
       <c r="C58">
-        <v>3486563</v>
+        <v>3435197</v>
       </c>
       <c r="D58">
-        <v>540</v>
+        <v>229</v>
       </c>
       <c r="E58" t="s">
         <v>68</v>
       </c>
       <c r="F58">
-        <v>1298.970029713166</v>
+        <v>1313.853771919159</v>
       </c>
       <c r="G58">
         <v>4</v>
@@ -2091,22 +2091,22 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
       </c>
       <c r="C59">
-        <v>3506008</v>
+        <v>3485849</v>
       </c>
       <c r="D59">
-        <v>2750</v>
+        <v>454</v>
       </c>
       <c r="E59" t="s">
         <v>68</v>
       </c>
       <c r="F59">
-        <v>1365.90990966203</v>
+        <v>1289.297934878691</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -2117,22 +2117,22 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
       </c>
       <c r="C60">
-        <v>3505998</v>
+        <v>3505809</v>
       </c>
       <c r="D60">
-        <v>227</v>
+        <v>4518</v>
       </c>
       <c r="E60" t="s">
         <v>68</v>
       </c>
       <c r="F60">
-        <v>1295.756219008171</v>
+        <v>1398.270388893134</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -2143,22 +2143,22 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B61" t="s">
         <v>66</v>
       </c>
       <c r="C61">
-        <v>3295144</v>
+        <v>3515087</v>
       </c>
       <c r="D61">
-        <v>211</v>
+        <v>5041</v>
       </c>
       <c r="E61" t="s">
         <v>68</v>
       </c>
       <c r="F61">
-        <v>1262.171773079532</v>
+        <v>1278.756448086398</v>
       </c>
       <c r="G61">
         <v>1</v>

--- a/elo/knapsack/fantasydf_actual.xlsx
+++ b/elo/knapsack/fantasydf_actual.xlsx
@@ -37,184 +37,184 @@
     <t>place</t>
   </si>
   <si>
+    <t>Oskar SVENSSON</t>
+  </si>
+  <si>
+    <t>Gleb RETIVYKH</t>
+  </si>
+  <si>
     <t>Alexander BOLSHUNOV</t>
   </si>
   <si>
+    <t>Federico PELLEGRINO</t>
+  </si>
+  <si>
+    <t>Valentin CHAUVIN</t>
+  </si>
+  <si>
+    <t>Artem MALTSEV</t>
+  </si>
+  <si>
+    <t>Markus VUORELA</t>
+  </si>
+  <si>
+    <t>Janosch BRUGGER</t>
+  </si>
+  <si>
+    <t>Alexander TERENTEV</t>
+  </si>
+  <si>
+    <t>Ilia SEMIKOV</t>
+  </si>
+  <si>
+    <t>Andrey MELNICHENKO</t>
+  </si>
+  <si>
+    <t>Candide PRALONG</t>
+  </si>
+  <si>
     <t>Ivan YAKIMUSHKIN</t>
   </si>
   <si>
     <t>Evgeniy BELOV</t>
   </si>
   <si>
+    <t>Maurice MANIFICAT</t>
+  </si>
+  <si>
+    <t>Roman FURGER</t>
+  </si>
+  <si>
+    <t>Francesco DE FABIANI</t>
+  </si>
+  <si>
+    <t>Juho MIKKONEN</t>
+  </si>
+  <si>
+    <t>Thomas BING</t>
+  </si>
+  <si>
     <t>Alexey CHERVOTKIN</t>
   </si>
   <si>
-    <t>Andrey MELNICHENKO</t>
-  </si>
-  <si>
-    <t>Maurice MANIFICAT</t>
-  </si>
-  <si>
-    <t>Denis SPITSOV</t>
-  </si>
-  <si>
-    <t>Artem MALTSEV</t>
-  </si>
-  <si>
-    <t>Ilia SEMIKOV</t>
-  </si>
-  <si>
-    <t>Lucas BOEGL</t>
-  </si>
-  <si>
-    <t>Hugo LAPALUS</t>
-  </si>
-  <si>
-    <t>Clement PARISSE</t>
-  </si>
-  <si>
-    <t>Florian NOTZ</t>
-  </si>
-  <si>
-    <t>Alexander TERENTEV</t>
+    <t>Lauri LEPISTO</t>
+  </si>
+  <si>
+    <t>Michal NOVAK</t>
+  </si>
+  <si>
+    <t>Kevin BOLGER</t>
   </si>
   <si>
     <t>Gus SCHUMACHER</t>
   </si>
   <si>
-    <t>Francesco DE FABIANI</t>
-  </si>
-  <si>
-    <t>Dario COLOGNA</t>
-  </si>
-  <si>
-    <t>Jonas DOBLER</t>
-  </si>
-  <si>
-    <t>Federico PELLEGRINO</t>
-  </si>
-  <si>
-    <t>Oskar SVENSSON</t>
+    <t>Mika VERMEULEN</t>
   </si>
   <si>
     <t>William POROMAA</t>
   </si>
   <si>
-    <t>Calle HALFVARSSON</t>
-  </si>
-  <si>
-    <t>Jean Marc GAILLARD</t>
-  </si>
-  <si>
-    <t>Giandomenico SALVADORI</t>
-  </si>
-  <si>
-    <t>Markus VUORELA</t>
-  </si>
-  <si>
-    <t>Beda KLEE</t>
-  </si>
-  <si>
-    <t>Andrew MUSGRAVE</t>
-  </si>
-  <si>
-    <t>Jules LAPIERRE</t>
-  </si>
-  <si>
-    <t>Adrien BACKSCHEIDER</t>
-  </si>
-  <si>
-    <t>Imanol ROJO</t>
+    <t>Bjoern SANDSTROEM</t>
+  </si>
+  <si>
+    <t>Thomas MALONEY WESTGAARD</t>
+  </si>
+  <si>
+    <t>Richard JOUVE</t>
+  </si>
+  <si>
+    <t>Verneri SUHONEN</t>
+  </si>
+  <si>
+    <t>Linn SVAHN</t>
+  </si>
+  <si>
+    <t>Maja DAHLQVIST</t>
+  </si>
+  <si>
+    <t>Emma RIBOM</t>
+  </si>
+  <si>
+    <t>Natalia NEPRYAEVA</t>
+  </si>
+  <si>
+    <t>Tatiana SORINA</t>
+  </si>
+  <si>
+    <t>Krista PARMAKOSKI</t>
+  </si>
+  <si>
+    <t>Jonna SUNDLING</t>
   </si>
   <si>
     <t>Yulia STUPAK</t>
   </si>
   <si>
+    <t>Anamarija LAMPIC</t>
+  </si>
+  <si>
+    <t>Jessie DIGGINS</t>
+  </si>
+  <si>
+    <t>Nadine FAEHNDRICH</t>
+  </si>
+  <si>
+    <t>Rosie BRENNAN</t>
+  </si>
+  <si>
+    <t>Julia KERN</t>
+  </si>
+  <si>
+    <t>Lucia SCARDONI</t>
+  </si>
+  <si>
+    <t>Katharina HENNIG</t>
+  </si>
+  <si>
+    <t>Johanna MATINTALO</t>
+  </si>
+  <si>
+    <t>Hailey SWIRBUL</t>
+  </si>
+  <si>
+    <t>Moa LUNDGREN</t>
+  </si>
+  <si>
+    <t>Hristina MATSOKINA</t>
+  </si>
+  <si>
     <t>Ebba ANDERSSON</t>
   </si>
   <si>
-    <t>Jessie DIGGINS</t>
-  </si>
-  <si>
-    <t>Rosie BRENNAN</t>
-  </si>
-  <si>
-    <t>Krista PARMAKOSKI</t>
-  </si>
-  <si>
-    <t>Tatiana SORINA</t>
+    <t>Laurien VAN DER GRAAFF</t>
+  </si>
+  <si>
+    <t>Antonia FRAEBEL</t>
+  </si>
+  <si>
+    <t>Pia FINK</t>
   </si>
   <si>
     <t>Alisa ZHAMBALOVA</t>
   </si>
   <si>
-    <t>Katharina HENNIG</t>
+    <t>Moa OLSSON</t>
   </si>
   <si>
     <t>Katerina RAZYMOVA</t>
   </si>
   <si>
-    <t>Natalia NEPRYAEVA</t>
-  </si>
-  <si>
-    <t>Yana KIRPICHENKO</t>
+    <t>Katerina JANATOVA</t>
   </si>
   <si>
     <t>Teresa STADLOBER</t>
   </si>
   <si>
-    <t>Frida KARLSSON</t>
-  </si>
-  <si>
-    <t>Anamarija LAMPIC</t>
-  </si>
-  <si>
-    <t>Johanna MATINTALO</t>
-  </si>
-  <si>
-    <t>Nadine FAEHNDRICH</t>
-  </si>
-  <si>
-    <t>Anna COMARELLA</t>
-  </si>
-  <si>
-    <t>Delphine CLAUDEL</t>
-  </si>
-  <si>
-    <t>Maja DAHLQVIST</t>
-  </si>
-  <si>
-    <t>Katharine OGDEN</t>
-  </si>
-  <si>
-    <t>Lucia SCARDONI</t>
-  </si>
-  <si>
-    <t>Hailey SWIRBUL</t>
-  </si>
-  <si>
-    <t>Linn SVAHN</t>
-  </si>
-  <si>
-    <t>Hristina MATSOKINA</t>
-  </si>
-  <si>
-    <t>Emma RIBOM</t>
-  </si>
-  <si>
     <t>Patricija EIDUKA</t>
   </si>
   <si>
-    <t>Izabela MARCISZ</t>
-  </si>
-  <si>
-    <t>Anna NECHAEVSKAYA</t>
-  </si>
-  <si>
-    <t>Jonna SUNDLING</t>
-  </si>
-  <si>
-    <t>Laurien VAN DER GRAAFF</t>
+    <t>Ilaria DEBERTOLIS</t>
   </si>
   <si>
     <t>m</t>
@@ -615,16 +615,16 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>3482277</v>
+        <v>3501255</v>
       </c>
       <c r="D2">
-        <v>22366</v>
+        <v>978</v>
       </c>
       <c r="E2" t="s">
         <v>67</v>
       </c>
       <c r="F2">
-        <v>1553.467382604635</v>
+        <v>1461.118734895173</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -641,16 +641,16 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>3482105</v>
+        <v>3481163</v>
       </c>
       <c r="D3">
-        <v>5172</v>
+        <v>7637</v>
       </c>
       <c r="E3" t="s">
         <v>67</v>
       </c>
       <c r="F3">
-        <v>1459.35692133401</v>
+        <v>1476.46438433092</v>
       </c>
       <c r="G3">
         <v>46</v>
@@ -667,16 +667,16 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>3481161</v>
+        <v>3482277</v>
       </c>
       <c r="D4">
-        <v>3443</v>
+        <v>22366</v>
       </c>
       <c r="E4" t="s">
         <v>67</v>
       </c>
       <c r="F4">
-        <v>1469.425719390575</v>
+        <v>1498.029432081646</v>
       </c>
       <c r="G4">
         <v>43</v>
@@ -693,16 +693,16 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>3482119</v>
+        <v>3290326</v>
       </c>
       <c r="D5">
-        <v>4000</v>
+        <v>11514</v>
       </c>
       <c r="E5" t="s">
         <v>67</v>
       </c>
       <c r="F5">
-        <v>1416.28774144958</v>
+        <v>1490.502538581777</v>
       </c>
       <c r="G5">
         <v>40</v>
@@ -719,16 +719,16 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>3481803</v>
+        <v>3190353</v>
       </c>
       <c r="D6">
-        <v>7488</v>
+        <v>512</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
       </c>
       <c r="F6">
-        <v>1420.651593332222</v>
+        <v>1352.879729500688</v>
       </c>
       <c r="G6">
         <v>37</v>
@@ -745,16 +745,16 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>3190111</v>
+        <v>3481432</v>
       </c>
       <c r="D7">
-        <v>1450</v>
+        <v>4522</v>
       </c>
       <c r="E7" t="s">
         <v>67</v>
       </c>
       <c r="F7">
-        <v>1401.01901102471</v>
+        <v>1342.546176643214</v>
       </c>
       <c r="G7">
         <v>34</v>
@@ -771,16 +771,16 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>3482280</v>
+        <v>3181007</v>
       </c>
       <c r="D8">
-        <v>2646</v>
+        <v>233</v>
       </c>
       <c r="E8" t="s">
         <v>67</v>
       </c>
       <c r="F8">
-        <v>1413.801479498963</v>
+        <v>1268.978896399612</v>
       </c>
       <c r="G8">
         <v>32</v>
@@ -797,16 +797,16 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>3481432</v>
+        <v>3200676</v>
       </c>
       <c r="D9">
-        <v>4522</v>
+        <v>225</v>
       </c>
       <c r="E9" t="s">
         <v>67</v>
       </c>
       <c r="F9">
-        <v>1393.290714128157</v>
+        <v>1286.303955386959</v>
       </c>
       <c r="G9">
         <v>30</v>
@@ -823,16 +823,16 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>3481988</v>
+        <v>3482806</v>
       </c>
       <c r="D10">
-        <v>1838</v>
+        <v>1099</v>
       </c>
       <c r="E10" t="s">
         <v>67</v>
       </c>
       <c r="F10">
-        <v>1404.252360845846</v>
+        <v>1333.610172315024</v>
       </c>
       <c r="G10">
         <v>28</v>
@@ -849,16 +849,16 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>3200205</v>
+        <v>3481988</v>
       </c>
       <c r="D11">
-        <v>1319</v>
+        <v>1838</v>
       </c>
       <c r="E11" t="s">
         <v>67</v>
       </c>
       <c r="F11">
-        <v>1390.467596204614</v>
+        <v>1355.470980047457</v>
       </c>
       <c r="G11">
         <v>26</v>
@@ -875,16 +875,16 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>3190529</v>
+        <v>3481803</v>
       </c>
       <c r="D12">
-        <v>471</v>
+        <v>7488</v>
       </c>
       <c r="E12" t="s">
         <v>67</v>
       </c>
       <c r="F12">
-        <v>1344.943457738786</v>
+        <v>1352.620426214391</v>
       </c>
       <c r="G12">
         <v>24</v>
@@ -901,16 +901,16 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>3190302</v>
+        <v>3510361</v>
       </c>
       <c r="D13">
-        <v>1470</v>
+        <v>212</v>
       </c>
       <c r="E13" t="s">
         <v>67</v>
       </c>
       <c r="F13">
-        <v>1380.604815484171</v>
+        <v>1300</v>
       </c>
       <c r="G13">
         <v>22</v>
@@ -927,16 +927,16 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>3200376</v>
+        <v>3482105</v>
       </c>
       <c r="D14">
-        <v>753</v>
+        <v>5172</v>
       </c>
       <c r="E14" t="s">
         <v>67</v>
       </c>
       <c r="F14">
-        <v>1337.191941923889</v>
+        <v>1335.079768217202</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -953,16 +953,16 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>3482806</v>
+        <v>3481161</v>
       </c>
       <c r="D15">
-        <v>1099</v>
+        <v>3443</v>
       </c>
       <c r="E15" t="s">
         <v>67</v>
       </c>
       <c r="F15">
-        <v>1296.48838524213</v>
+        <v>1361.584218971965</v>
       </c>
       <c r="G15">
         <v>18</v>
@@ -979,16 +979,16 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>3530882</v>
+        <v>3190111</v>
       </c>
       <c r="D16">
-        <v>592</v>
+        <v>1450</v>
       </c>
       <c r="E16" t="s">
         <v>67</v>
       </c>
       <c r="F16">
-        <v>1302.558256547488</v>
+        <v>1357.616695642105</v>
       </c>
       <c r="G16">
         <v>16</v>
@@ -1005,16 +1005,16 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>3290379</v>
+        <v>3510351</v>
       </c>
       <c r="D17">
-        <v>3407</v>
+        <v>1000</v>
       </c>
       <c r="E17" t="s">
         <v>67</v>
       </c>
       <c r="F17">
-        <v>1473.792045617231</v>
+        <v>1240.901151078056</v>
       </c>
       <c r="G17">
         <v>15</v>
@@ -1031,16 +1031,16 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>3510023</v>
+        <v>3290379</v>
       </c>
       <c r="D18">
-        <v>4296</v>
+        <v>3407</v>
       </c>
       <c r="E18" t="s">
         <v>67</v>
       </c>
       <c r="F18">
-        <v>1476.030285073965</v>
+        <v>1352.171624983596</v>
       </c>
       <c r="G18">
         <v>14</v>
@@ -1057,16 +1057,16 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>3200356</v>
+        <v>3180436</v>
       </c>
       <c r="D19">
-        <v>579</v>
+        <v>223</v>
       </c>
       <c r="E19" t="s">
         <v>67</v>
       </c>
       <c r="F19">
-        <v>1357.904822998978</v>
+        <v>1371.59490824278</v>
       </c>
       <c r="G19">
         <v>13</v>
@@ -1083,16 +1083,16 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>3290326</v>
+        <v>3200241</v>
       </c>
       <c r="D20">
-        <v>11514</v>
+        <v>215</v>
       </c>
       <c r="E20" t="s">
         <v>67</v>
       </c>
       <c r="F20">
-        <v>1356.095303109623</v>
+        <v>1314.953051696856</v>
       </c>
       <c r="G20">
         <v>12</v>
@@ -1109,16 +1109,16 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>3501255</v>
+        <v>3482119</v>
       </c>
       <c r="D21">
-        <v>978</v>
+        <v>4000</v>
       </c>
       <c r="E21" t="s">
         <v>67</v>
       </c>
       <c r="F21">
-        <v>1354.471282804448</v>
+        <v>1304.663073542417</v>
       </c>
       <c r="G21">
         <v>11</v>
@@ -1135,16 +1135,16 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>3501741</v>
+        <v>3180984</v>
       </c>
       <c r="D22">
-        <v>990</v>
+        <v>220</v>
       </c>
       <c r="E22" t="s">
         <v>67</v>
       </c>
       <c r="F22">
-        <v>1340.816037486382</v>
+        <v>1342.174878870511</v>
       </c>
       <c r="G22">
         <v>10</v>
@@ -1161,16 +1161,16 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>3500664</v>
+        <v>3150570</v>
       </c>
       <c r="D23">
-        <v>2131</v>
+        <v>316</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
       </c>
       <c r="F23">
-        <v>1480.059919186682</v>
+        <v>1347.527159027077</v>
       </c>
       <c r="G23">
         <v>9</v>
@@ -1187,16 +1187,16 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>1345875</v>
+        <v>3530713</v>
       </c>
       <c r="D24">
-        <v>900</v>
+        <v>628</v>
       </c>
       <c r="E24" t="s">
         <v>67</v>
       </c>
       <c r="F24">
-        <v>1448.038699142063</v>
+        <v>1276.522840157552</v>
       </c>
       <c r="G24">
         <v>8</v>
@@ -1213,16 +1213,16 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>3290407</v>
+        <v>3530882</v>
       </c>
       <c r="D25">
-        <v>432</v>
+        <v>592</v>
       </c>
       <c r="E25" t="s">
         <v>67</v>
       </c>
       <c r="F25">
-        <v>1351.975748316459</v>
+        <v>1303.317041775588</v>
       </c>
       <c r="G25">
         <v>7</v>
@@ -1239,16 +1239,16 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>3181007</v>
+        <v>3050342</v>
       </c>
       <c r="D26">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="E26" t="s">
         <v>67</v>
       </c>
       <c r="F26">
-        <v>1312.289727462367</v>
+        <v>1300</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -1265,16 +1265,16 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>3510534</v>
+        <v>3501741</v>
       </c>
       <c r="D27">
-        <v>309</v>
+        <v>990</v>
       </c>
       <c r="E27" t="s">
         <v>67</v>
       </c>
       <c r="F27">
-        <v>1356.923319893914</v>
+        <v>1310.967041775588</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -1291,16 +1291,16 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>3220002</v>
+        <v>3501297</v>
       </c>
       <c r="D28">
-        <v>5122</v>
+        <v>232</v>
       </c>
       <c r="E28" t="s">
         <v>67</v>
       </c>
       <c r="F28">
-        <v>1409.245423522446</v>
+        <v>1284.467997386421</v>
       </c>
       <c r="G28">
         <v>4</v>
@@ -1317,16 +1317,16 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>3190398</v>
+        <v>3270010</v>
       </c>
       <c r="D29">
-        <v>585</v>
+        <v>223</v>
       </c>
       <c r="E29" t="s">
         <v>67</v>
       </c>
       <c r="F29">
-        <v>1350.75157543677</v>
+        <v>1258.820438348538</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -1343,16 +1343,16 @@
         <v>35</v>
       </c>
       <c r="C30">
-        <v>3190268</v>
+        <v>3190345</v>
       </c>
       <c r="D30">
-        <v>861</v>
+        <v>6443</v>
       </c>
       <c r="E30" t="s">
         <v>67</v>
       </c>
       <c r="F30">
-        <v>1370.263199723416</v>
+        <v>1417.572517151001</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1369,16 +1369,16 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>3490145</v>
+        <v>3181098</v>
       </c>
       <c r="D31">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E31" t="s">
         <v>67</v>
       </c>
       <c r="F31">
-        <v>1257.85980215899</v>
+        <v>1324.439532904136</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1389,22 +1389,22 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
       </c>
       <c r="C32">
-        <v>3486239</v>
+        <v>3506166</v>
       </c>
       <c r="D32">
-        <v>7809</v>
+        <v>4946</v>
       </c>
       <c r="E32" t="s">
         <v>68</v>
       </c>
       <c r="F32">
-        <v>1437.849802755422</v>
+        <v>1385.188548299732</v>
       </c>
       <c r="G32">
         <v>50</v>
@@ -1415,22 +1415,22 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
       </c>
       <c r="C33">
-        <v>3505990</v>
+        <v>3505800</v>
       </c>
       <c r="D33">
-        <v>15649</v>
+        <v>4816</v>
       </c>
       <c r="E33" t="s">
         <v>68</v>
       </c>
       <c r="F33">
-        <v>1484.367382216556</v>
+        <v>1397.340375817105</v>
       </c>
       <c r="G33">
         <v>46</v>
@@ -1441,22 +1441,22 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
       </c>
       <c r="C34">
-        <v>3535410</v>
+        <v>3506008</v>
       </c>
       <c r="D34">
-        <v>12712</v>
+        <v>2750</v>
       </c>
       <c r="E34" t="s">
         <v>68</v>
       </c>
       <c r="F34">
-        <v>1462.307580891505</v>
+        <v>1380.366251407857</v>
       </c>
       <c r="G34">
         <v>43</v>
@@ -1467,22 +1467,22 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
       </c>
       <c r="C35">
-        <v>3535316</v>
+        <v>3486010</v>
       </c>
       <c r="D35">
-        <v>10007</v>
+        <v>16746</v>
       </c>
       <c r="E35" t="s">
         <v>68</v>
       </c>
       <c r="F35">
-        <v>1414.416253511009</v>
+        <v>1470.970521638261</v>
       </c>
       <c r="G35">
         <v>40</v>
@@ -1493,22 +1493,22 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
         <v>41</v>
       </c>
       <c r="C36">
-        <v>3185256</v>
+        <v>3485933</v>
       </c>
       <c r="D36">
-        <v>5201</v>
+        <v>7690</v>
       </c>
       <c r="E36" t="s">
         <v>68</v>
       </c>
       <c r="F36">
-        <v>1510.904155905768</v>
+        <v>1323.834855072289</v>
       </c>
       <c r="G36">
         <v>37</v>
@@ -1519,22 +1519,22 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
       </c>
       <c r="C37">
-        <v>3485933</v>
+        <v>3185256</v>
       </c>
       <c r="D37">
-        <v>7690</v>
+        <v>5201</v>
       </c>
       <c r="E37" t="s">
         <v>68</v>
       </c>
       <c r="F37">
-        <v>1333.715889798235</v>
+        <v>1433.266071129487</v>
       </c>
       <c r="G37">
         <v>34</v>
@@ -1545,22 +1545,22 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
       </c>
       <c r="C38">
-        <v>3485862</v>
+        <v>3505809</v>
       </c>
       <c r="D38">
-        <v>1015</v>
+        <v>4518</v>
       </c>
       <c r="E38" t="s">
         <v>68</v>
       </c>
       <c r="F38">
-        <v>1385.134590741715</v>
+        <v>1433.390767482483</v>
       </c>
       <c r="G38">
         <v>32</v>
@@ -1571,22 +1571,22 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
       </c>
       <c r="C39">
-        <v>3205460</v>
+        <v>3486239</v>
       </c>
       <c r="D39">
-        <v>4757</v>
+        <v>7809</v>
       </c>
       <c r="E39" t="s">
         <v>68</v>
       </c>
       <c r="F39">
-        <v>1459.909914274613</v>
+        <v>1429.557726964061</v>
       </c>
       <c r="G39">
         <v>30</v>
@@ -1597,22 +1597,22 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
       </c>
       <c r="C40">
-        <v>3155314</v>
+        <v>3565062</v>
       </c>
       <c r="D40">
-        <v>1975</v>
+        <v>12607</v>
       </c>
       <c r="E40" t="s">
         <v>68</v>
       </c>
       <c r="F40">
-        <v>1364.704966319022</v>
+        <v>1459.252879256865</v>
       </c>
       <c r="G40">
         <v>28</v>
@@ -1623,22 +1623,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
       </c>
       <c r="C41">
-        <v>3486010</v>
+        <v>3535410</v>
       </c>
       <c r="D41">
-        <v>16746</v>
+        <v>12712</v>
       </c>
       <c r="E41" t="s">
         <v>68</v>
       </c>
       <c r="F41">
-        <v>1497.836979099058</v>
+        <v>1433.835756936759</v>
       </c>
       <c r="G41">
         <v>26</v>
@@ -1649,22 +1649,22 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
       </c>
       <c r="C42">
-        <v>3486314</v>
+        <v>3515221</v>
       </c>
       <c r="D42">
-        <v>730</v>
+        <v>10716</v>
       </c>
       <c r="E42" t="s">
         <v>68</v>
       </c>
       <c r="F42">
-        <v>1361.602908820812</v>
+        <v>1418.882580212299</v>
       </c>
       <c r="G42">
         <v>24</v>
@@ -1675,22 +1675,22 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
       </c>
       <c r="C43">
-        <v>3055067</v>
+        <v>3535316</v>
       </c>
       <c r="D43">
-        <v>6614</v>
+        <v>10007</v>
       </c>
       <c r="E43" t="s">
         <v>68</v>
       </c>
       <c r="F43">
-        <v>1477.906902475029</v>
+        <v>1350.489851190474</v>
       </c>
       <c r="G43">
         <v>22</v>
@@ -1701,22 +1701,22 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
       </c>
       <c r="C44">
-        <v>3506154</v>
+        <v>3535562</v>
       </c>
       <c r="D44">
-        <v>13508</v>
+        <v>2809</v>
       </c>
       <c r="E44" t="s">
         <v>68</v>
       </c>
       <c r="F44">
-        <v>1430.027162991457</v>
+        <v>1300.460823014081</v>
       </c>
       <c r="G44">
         <v>20</v>
@@ -1727,22 +1727,22 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
       </c>
       <c r="C45">
-        <v>3565062</v>
+        <v>3295157</v>
       </c>
       <c r="D45">
-        <v>12607</v>
+        <v>2630</v>
       </c>
       <c r="E45" t="s">
         <v>68</v>
       </c>
       <c r="F45">
-        <v>1423.256617383354</v>
+        <v>1396.15639582549</v>
       </c>
       <c r="G45">
         <v>18</v>
@@ -1753,22 +1753,22 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
       </c>
       <c r="C46">
-        <v>3185579</v>
+        <v>3205460</v>
       </c>
       <c r="D46">
-        <v>622</v>
+        <v>4757</v>
       </c>
       <c r="E46" t="s">
         <v>68</v>
       </c>
       <c r="F46">
-        <v>1375.31142443003</v>
+        <v>1339.338439782384</v>
       </c>
       <c r="G46">
         <v>16</v>
@@ -1779,22 +1779,22 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
       </c>
       <c r="C47">
-        <v>3515221</v>
+        <v>3185579</v>
       </c>
       <c r="D47">
-        <v>10716</v>
+        <v>622</v>
       </c>
       <c r="E47" t="s">
         <v>68</v>
       </c>
       <c r="F47">
-        <v>1398.290417513512</v>
+        <v>1336.029571206116</v>
       </c>
       <c r="G47">
         <v>15</v>
@@ -1805,22 +1805,22 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
       </c>
       <c r="C48">
-        <v>3295322</v>
+        <v>3535602</v>
       </c>
       <c r="D48">
-        <v>429</v>
+        <v>1197</v>
       </c>
       <c r="E48" t="s">
         <v>68</v>
       </c>
       <c r="F48">
-        <v>1324.18885536917</v>
+        <v>1317.490878282309</v>
       </c>
       <c r="G48">
         <v>14</v>
@@ -1831,22 +1831,22 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
       <c r="C49">
-        <v>3195219</v>
+        <v>3506079</v>
       </c>
       <c r="D49">
-        <v>965</v>
+        <v>1793</v>
       </c>
       <c r="E49" t="s">
         <v>68</v>
       </c>
       <c r="F49">
-        <v>1307.718304533136</v>
+        <v>1357.121172323346</v>
       </c>
       <c r="G49">
         <v>13</v>
@@ -1857,22 +1857,22 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
       <c r="C50">
-        <v>3505800</v>
+        <v>3486563</v>
       </c>
       <c r="D50">
-        <v>4816</v>
+        <v>540</v>
       </c>
       <c r="E50" t="s">
         <v>68</v>
       </c>
       <c r="F50">
-        <v>1339.614732633698</v>
+        <v>1311.166137411528</v>
       </c>
       <c r="G50">
         <v>12</v>
@@ -1883,22 +1883,22 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
       <c r="C51">
-        <v>3535601</v>
+        <v>3505990</v>
       </c>
       <c r="D51">
-        <v>217</v>
+        <v>15649</v>
       </c>
       <c r="E51" t="s">
         <v>68</v>
       </c>
       <c r="F51">
-        <v>1284.5602511403</v>
+        <v>1306.379279432033</v>
       </c>
       <c r="G51">
         <v>11</v>
@@ -1909,22 +1909,22 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
       </c>
       <c r="C52">
-        <v>3295157</v>
+        <v>3515087</v>
       </c>
       <c r="D52">
-        <v>2630</v>
+        <v>5041</v>
       </c>
       <c r="E52" t="s">
         <v>68</v>
       </c>
       <c r="F52">
-        <v>1287.171471236471</v>
+        <v>1404.646654793783</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -1935,22 +1935,22 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
         <v>58</v>
       </c>
       <c r="C53">
-        <v>3535602</v>
+        <v>3205491</v>
       </c>
       <c r="D53">
-        <v>1197</v>
+        <v>232</v>
       </c>
       <c r="E53" t="s">
         <v>68</v>
       </c>
       <c r="F53">
-        <v>1307.691184047806</v>
+        <v>1271.460233255384</v>
       </c>
       <c r="G53">
         <v>9</v>
@@ -1961,22 +1961,22 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
       </c>
       <c r="C54">
-        <v>3506166</v>
+        <v>3205407</v>
       </c>
       <c r="D54">
-        <v>4946</v>
+        <v>328</v>
       </c>
       <c r="E54" t="s">
         <v>68</v>
       </c>
       <c r="F54">
-        <v>1361.937465670712</v>
+        <v>1279.6409157668</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -1987,22 +1987,22 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
       </c>
       <c r="C55">
-        <v>3486563</v>
+        <v>3485862</v>
       </c>
       <c r="D55">
-        <v>540</v>
+        <v>1015</v>
       </c>
       <c r="E55" t="s">
         <v>68</v>
       </c>
       <c r="F55">
-        <v>1302.921022639933</v>
+        <v>1254.742569832695</v>
       </c>
       <c r="G55">
         <v>7</v>
@@ -2013,22 +2013,22 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
       </c>
       <c r="C56">
-        <v>3506008</v>
+        <v>3505998</v>
       </c>
       <c r="D56">
-        <v>2750</v>
+        <v>227</v>
       </c>
       <c r="E56" t="s">
         <v>68</v>
       </c>
       <c r="F56">
-        <v>1357.654102954614</v>
+        <v>1283.181624734083</v>
       </c>
       <c r="G56">
         <v>6</v>
@@ -2039,22 +2039,22 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
         <v>62</v>
       </c>
       <c r="C57">
-        <v>3555052</v>
+        <v>3155314</v>
       </c>
       <c r="D57">
-        <v>368</v>
+        <v>1975</v>
       </c>
       <c r="E57" t="s">
         <v>68</v>
       </c>
       <c r="F57">
-        <v>1278.904428762767</v>
+        <v>1292.837942156164</v>
       </c>
       <c r="G57">
         <v>5</v>
@@ -2065,22 +2065,22 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
       </c>
       <c r="C58">
-        <v>3435197</v>
+        <v>3155324</v>
       </c>
       <c r="D58">
-        <v>229</v>
+        <v>1001</v>
       </c>
       <c r="E58" t="s">
         <v>68</v>
       </c>
       <c r="F58">
-        <v>1313.853771919159</v>
+        <v>1278.892632708157</v>
       </c>
       <c r="G58">
         <v>4</v>
@@ -2091,22 +2091,22 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
       </c>
       <c r="C59">
-        <v>3485849</v>
+        <v>3055067</v>
       </c>
       <c r="D59">
-        <v>454</v>
+        <v>6614</v>
       </c>
       <c r="E59" t="s">
         <v>68</v>
       </c>
       <c r="F59">
-        <v>1289.297934878691</v>
+        <v>1268.756202990765</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -2117,22 +2117,22 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
       </c>
       <c r="C60">
-        <v>3505809</v>
+        <v>3555052</v>
       </c>
       <c r="D60">
-        <v>4518</v>
+        <v>368</v>
       </c>
       <c r="E60" t="s">
         <v>68</v>
       </c>
       <c r="F60">
-        <v>1398.270388893134</v>
+        <v>1259.259078711428</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -2143,22 +2143,22 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
         <v>66</v>
       </c>
       <c r="C61">
-        <v>3515087</v>
+        <v>3295144</v>
       </c>
       <c r="D61">
-        <v>5041</v>
+        <v>211</v>
       </c>
       <c r="E61" t="s">
         <v>68</v>
       </c>
       <c r="F61">
-        <v>1278.756448086398</v>
+        <v>1275.608957739406</v>
       </c>
       <c r="G61">
         <v>1</v>

--- a/elo/knapsack/fantasydf_actual.xlsx
+++ b/elo/knapsack/fantasydf_actual.xlsx
@@ -37,184 +37,184 @@
     <t>place</t>
   </si>
   <si>
+    <t>Alexander BOLSHUNOV</t>
+  </si>
+  <si>
+    <t>Maurice MANIFICAT</t>
+  </si>
+  <si>
+    <t>Denis SPITSOV</t>
+  </si>
+  <si>
+    <t>Ivan YAKIMUSHKIN</t>
+  </si>
+  <si>
+    <t>Artem MALTSEV</t>
+  </si>
+  <si>
+    <t>Evgeniy BELOV</t>
+  </si>
+  <si>
+    <t>Andrey MELNICHENKO</t>
+  </si>
+  <si>
+    <t>Dario COLOGNA</t>
+  </si>
+  <si>
+    <t>Clement PARISSE</t>
+  </si>
+  <si>
+    <t>Hugo LAPALUS</t>
+  </si>
+  <si>
+    <t>Ilia SEMIKOV</t>
+  </si>
+  <si>
+    <t>Lucas BOEGL</t>
+  </si>
+  <si>
+    <t>Adrien BACKSCHEIDER</t>
+  </si>
+  <si>
+    <t>Federico PELLEGRINO</t>
+  </si>
+  <si>
+    <t>Francesco DE FABIANI</t>
+  </si>
+  <si>
     <t>Oskar SVENSSON</t>
   </si>
   <si>
-    <t>Gleb RETIVYKH</t>
-  </si>
-  <si>
-    <t>Alexander BOLSHUNOV</t>
-  </si>
-  <si>
-    <t>Federico PELLEGRINO</t>
-  </si>
-  <si>
-    <t>Valentin CHAUVIN</t>
-  </si>
-  <si>
-    <t>Artem MALTSEV</t>
+    <t>Alexey CHERVOTKIN</t>
+  </si>
+  <si>
+    <t>Gus SCHUMACHER</t>
+  </si>
+  <si>
+    <t>Florian NOTZ</t>
+  </si>
+  <si>
+    <t>Jules LAPIERRE</t>
+  </si>
+  <si>
+    <t>Jonas DOBLER</t>
+  </si>
+  <si>
+    <t>Ireneu ESTEVE ALTIMIRAS</t>
+  </si>
+  <si>
+    <t>William POROMAA</t>
+  </si>
+  <si>
+    <t>Michal NOVAK</t>
+  </si>
+  <si>
+    <t>Alexander TERENTEV</t>
+  </si>
+  <si>
+    <t>Beda KLEE</t>
   </si>
   <si>
     <t>Markus VUORELA</t>
   </si>
   <si>
+    <t>Jonas BAUMANN</t>
+  </si>
+  <si>
+    <t>Roman FURGER</t>
+  </si>
+  <si>
     <t>Janosch BRUGGER</t>
   </si>
   <si>
-    <t>Alexander TERENTEV</t>
-  </si>
-  <si>
-    <t>Ilia SEMIKOV</t>
-  </si>
-  <si>
-    <t>Andrey MELNICHENKO</t>
-  </si>
-  <si>
-    <t>Candide PRALONG</t>
-  </si>
-  <si>
-    <t>Ivan YAKIMUSHKIN</t>
-  </si>
-  <si>
-    <t>Evgeniy BELOV</t>
-  </si>
-  <si>
-    <t>Maurice MANIFICAT</t>
-  </si>
-  <si>
-    <t>Roman FURGER</t>
-  </si>
-  <si>
-    <t>Francesco DE FABIANI</t>
-  </si>
-  <si>
-    <t>Juho MIKKONEN</t>
-  </si>
-  <si>
-    <t>Thomas BING</t>
-  </si>
-  <si>
-    <t>Alexey CHERVOTKIN</t>
-  </si>
-  <si>
-    <t>Lauri LEPISTO</t>
-  </si>
-  <si>
-    <t>Michal NOVAK</t>
-  </si>
-  <si>
-    <t>Kevin BOLGER</t>
-  </si>
-  <si>
-    <t>Gus SCHUMACHER</t>
-  </si>
-  <si>
-    <t>Mika VERMEULEN</t>
-  </si>
-  <si>
-    <t>William POROMAA</t>
-  </si>
-  <si>
-    <t>Bjoern SANDSTROEM</t>
-  </si>
-  <si>
-    <t>Thomas MALONEY WESTGAARD</t>
-  </si>
-  <si>
-    <t>Richard JOUVE</t>
-  </si>
-  <si>
-    <t>Verneri SUHONEN</t>
+    <t>Jessie DIGGINS</t>
+  </si>
+  <si>
+    <t>Yulia STUPAK</t>
+  </si>
+  <si>
+    <t>Ebba ANDERSSON</t>
+  </si>
+  <si>
+    <t>Tatiana SORINA</t>
+  </si>
+  <si>
+    <t>Krista PARMAKOSKI</t>
+  </si>
+  <si>
+    <t>Rosie BRENNAN</t>
+  </si>
+  <si>
+    <t>Natalia NEPRYAEVA</t>
+  </si>
+  <si>
+    <t>Katharina HENNIG</t>
+  </si>
+  <si>
+    <t>Teresa STADLOBER</t>
+  </si>
+  <si>
+    <t>Katerina RAZYMOVA</t>
+  </si>
+  <si>
+    <t>Nadine FAEHNDRICH</t>
+  </si>
+  <si>
+    <t>Alisa ZHAMBALOVA</t>
+  </si>
+  <si>
+    <t>Yana KIRPICHENKO</t>
   </si>
   <si>
     <t>Linn SVAHN</t>
   </si>
   <si>
+    <t>Anamarija LAMPIC</t>
+  </si>
+  <si>
+    <t>Delphine CLAUDEL</t>
+  </si>
+  <si>
+    <t>Johanna MATINTALO</t>
+  </si>
+  <si>
+    <t>Hailey SWIRBUL</t>
+  </si>
+  <si>
     <t>Maja DAHLQVIST</t>
   </si>
   <si>
+    <t>Anna COMARELLA</t>
+  </si>
+  <si>
     <t>Emma RIBOM</t>
   </si>
   <si>
-    <t>Natalia NEPRYAEVA</t>
-  </si>
-  <si>
-    <t>Tatiana SORINA</t>
-  </si>
-  <si>
-    <t>Krista PARMAKOSKI</t>
+    <t>Anna NECHAEVSKAYA</t>
+  </si>
+  <si>
+    <t>Katharine OGDEN</t>
+  </si>
+  <si>
+    <t>Patricija EIDUKA</t>
   </si>
   <si>
     <t>Jonna SUNDLING</t>
   </si>
   <si>
-    <t>Yulia STUPAK</t>
-  </si>
-  <si>
-    <t>Anamarija LAMPIC</t>
-  </si>
-  <si>
-    <t>Jessie DIGGINS</t>
-  </si>
-  <si>
-    <t>Nadine FAEHNDRICH</t>
-  </si>
-  <si>
-    <t>Rosie BRENNAN</t>
-  </si>
-  <si>
-    <t>Julia KERN</t>
-  </si>
-  <si>
-    <t>Lucia SCARDONI</t>
-  </si>
-  <si>
-    <t>Katharina HENNIG</t>
-  </si>
-  <si>
-    <t>Johanna MATINTALO</t>
-  </si>
-  <si>
-    <t>Hailey SWIRBUL</t>
+    <t>Antonia FRAEBEL</t>
+  </si>
+  <si>
+    <t>Pia FINK</t>
+  </si>
+  <si>
+    <t>Hristina MATSOKINA</t>
+  </si>
+  <si>
+    <t>Izabela MARCISZ</t>
   </si>
   <si>
     <t>Moa LUNDGREN</t>
-  </si>
-  <si>
-    <t>Hristina MATSOKINA</t>
-  </si>
-  <si>
-    <t>Ebba ANDERSSON</t>
-  </si>
-  <si>
-    <t>Laurien VAN DER GRAAFF</t>
-  </si>
-  <si>
-    <t>Antonia FRAEBEL</t>
-  </si>
-  <si>
-    <t>Pia FINK</t>
-  </si>
-  <si>
-    <t>Alisa ZHAMBALOVA</t>
-  </si>
-  <si>
-    <t>Moa OLSSON</t>
-  </si>
-  <si>
-    <t>Katerina RAZYMOVA</t>
-  </si>
-  <si>
-    <t>Katerina JANATOVA</t>
-  </si>
-  <si>
-    <t>Teresa STADLOBER</t>
-  </si>
-  <si>
-    <t>Patricija EIDUKA</t>
-  </si>
-  <si>
-    <t>Ilaria DEBERTOLIS</t>
   </si>
   <si>
     <t>m</t>
@@ -615,19 +615,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>3501255</v>
+        <v>3482277</v>
       </c>
       <c r="D2">
-        <v>978</v>
+        <v>22366</v>
       </c>
       <c r="E2" t="s">
         <v>67</v>
       </c>
       <c r="F2">
-        <v>1461.118734895173</v>
+        <v>1597.687829068173</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -641,19 +641,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>3481163</v>
+        <v>3190111</v>
       </c>
       <c r="D3">
-        <v>7637</v>
+        <v>1450</v>
       </c>
       <c r="E3" t="s">
         <v>67</v>
       </c>
       <c r="F3">
-        <v>1476.46438433092</v>
+        <v>1494.125492767264</v>
       </c>
       <c r="G3">
-        <v>46</v>
+        <v>320</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -667,19 +667,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>3482277</v>
+        <v>3482280</v>
       </c>
       <c r="D4">
-        <v>22366</v>
+        <v>2646</v>
       </c>
       <c r="E4" t="s">
         <v>67</v>
       </c>
       <c r="F4">
-        <v>1498.029432081646</v>
+        <v>1534.973020245729</v>
       </c>
       <c r="G4">
-        <v>43</v>
+        <v>240</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -693,19 +693,19 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>3290326</v>
+        <v>3482105</v>
       </c>
       <c r="D5">
-        <v>11514</v>
+        <v>5172</v>
       </c>
       <c r="E5" t="s">
         <v>67</v>
       </c>
       <c r="F5">
-        <v>1490.502538581777</v>
+        <v>1497.3700667749</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -719,19 +719,19 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>3190353</v>
+        <v>3481432</v>
       </c>
       <c r="D6">
-        <v>512</v>
+        <v>4522</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
       </c>
       <c r="F6">
-        <v>1352.879729500688</v>
+        <v>1470.798640626109</v>
       </c>
       <c r="G6">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -745,19 +745,19 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>3481432</v>
+        <v>3481161</v>
       </c>
       <c r="D7">
-        <v>4522</v>
+        <v>3443</v>
       </c>
       <c r="E7" t="s">
         <v>67</v>
       </c>
       <c r="F7">
-        <v>1342.546176643214</v>
+        <v>1517.064050655186</v>
       </c>
       <c r="G7">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -771,19 +771,19 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>3181007</v>
+        <v>3481803</v>
       </c>
       <c r="D8">
-        <v>233</v>
+        <v>7488</v>
       </c>
       <c r="E8" t="s">
         <v>67</v>
       </c>
       <c r="F8">
-        <v>1268.978896399612</v>
+        <v>1560.921591759138</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -797,19 +797,19 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>3200676</v>
+        <v>3510023</v>
       </c>
       <c r="D9">
-        <v>225</v>
+        <v>4296</v>
       </c>
       <c r="E9" t="s">
         <v>67</v>
       </c>
       <c r="F9">
-        <v>1286.303955386959</v>
+        <v>1545.280372091731</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -823,19 +823,19 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>3482806</v>
+        <v>3190302</v>
       </c>
       <c r="D10">
-        <v>1099</v>
+        <v>1470</v>
       </c>
       <c r="E10" t="s">
         <v>67</v>
       </c>
       <c r="F10">
-        <v>1333.610172315024</v>
+        <v>1499.963952329231</v>
       </c>
       <c r="G10">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="H10">
         <v>9</v>
@@ -849,19 +849,19 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>3481988</v>
+        <v>3190529</v>
       </c>
       <c r="D11">
-        <v>1838</v>
+        <v>471</v>
       </c>
       <c r="E11" t="s">
         <v>67</v>
       </c>
       <c r="F11">
-        <v>1355.470980047457</v>
+        <v>1423.014075435246</v>
       </c>
       <c r="G11">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -875,19 +875,19 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>3481803</v>
+        <v>3481988</v>
       </c>
       <c r="D12">
-        <v>7488</v>
+        <v>1838</v>
       </c>
       <c r="E12" t="s">
         <v>67</v>
       </c>
       <c r="F12">
-        <v>1352.620426214391</v>
+        <v>1320.173495903801</v>
       </c>
       <c r="G12">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -901,19 +901,19 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>3510361</v>
+        <v>3200205</v>
       </c>
       <c r="D13">
-        <v>212</v>
+        <v>1319</v>
       </c>
       <c r="E13" t="s">
         <v>67</v>
       </c>
       <c r="F13">
-        <v>1300</v>
+        <v>1451.279998316782</v>
       </c>
       <c r="G13">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="H13">
         <v>12</v>
@@ -927,19 +927,19 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>3482105</v>
+        <v>3190268</v>
       </c>
       <c r="D14">
-        <v>5172</v>
+        <v>861</v>
       </c>
       <c r="E14" t="s">
         <v>67</v>
       </c>
       <c r="F14">
-        <v>1335.079768217202</v>
+        <v>1464.918076067131</v>
       </c>
       <c r="G14">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="H14">
         <v>13</v>
@@ -953,19 +953,19 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>3481161</v>
+        <v>3290326</v>
       </c>
       <c r="D15">
-        <v>3443</v>
+        <v>11514</v>
       </c>
       <c r="E15" t="s">
         <v>67</v>
       </c>
       <c r="F15">
-        <v>1361.584218971965</v>
+        <v>1347.501924694395</v>
       </c>
       <c r="G15">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="H15">
         <v>14</v>
@@ -979,19 +979,19 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>3190111</v>
+        <v>3290379</v>
       </c>
       <c r="D16">
-        <v>1450</v>
+        <v>3407</v>
       </c>
       <c r="E16" t="s">
         <v>67</v>
       </c>
       <c r="F16">
-        <v>1357.616695642105</v>
+        <v>1452.127049740195</v>
       </c>
       <c r="G16">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -1005,19 +1005,19 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>3510351</v>
+        <v>3501255</v>
       </c>
       <c r="D17">
-        <v>1000</v>
+        <v>978</v>
       </c>
       <c r="E17" t="s">
         <v>67</v>
       </c>
       <c r="F17">
-        <v>1240.901151078056</v>
+        <v>1309.690950161112</v>
       </c>
       <c r="G17">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="H17">
         <v>16</v>
@@ -1031,19 +1031,19 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>3290379</v>
+        <v>3482119</v>
       </c>
       <c r="D18">
-        <v>3407</v>
+        <v>4000</v>
       </c>
       <c r="E18" t="s">
         <v>67</v>
       </c>
       <c r="F18">
-        <v>1352.171624983596</v>
+        <v>1437.095938241987</v>
       </c>
       <c r="G18">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H18">
         <v>17</v>
@@ -1057,19 +1057,19 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>3180436</v>
+        <v>3530882</v>
       </c>
       <c r="D19">
-        <v>223</v>
+        <v>592</v>
       </c>
       <c r="E19" t="s">
         <v>67</v>
       </c>
       <c r="F19">
-        <v>1371.59490824278</v>
+        <v>1344.533629505135</v>
       </c>
       <c r="G19">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="H19">
         <v>18</v>
@@ -1083,19 +1083,19 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>3200241</v>
+        <v>3200376</v>
       </c>
       <c r="D20">
-        <v>215</v>
+        <v>753</v>
       </c>
       <c r="E20" t="s">
         <v>67</v>
       </c>
       <c r="F20">
-        <v>1314.953051696856</v>
+        <v>1468.368528204986</v>
       </c>
       <c r="G20">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="H20">
         <v>19</v>
@@ -1109,19 +1109,19 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>3482119</v>
+        <v>3190398</v>
       </c>
       <c r="D21">
-        <v>4000</v>
+        <v>585</v>
       </c>
       <c r="E21" t="s">
         <v>67</v>
       </c>
       <c r="F21">
-        <v>1304.663073542417</v>
+        <v>1399.419179068256</v>
       </c>
       <c r="G21">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="H21">
         <v>20</v>
@@ -1135,19 +1135,19 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>3180984</v>
+        <v>3200356</v>
       </c>
       <c r="D22">
-        <v>220</v>
+        <v>579</v>
       </c>
       <c r="E22" t="s">
         <v>67</v>
       </c>
       <c r="F22">
-        <v>1342.174878870511</v>
+        <v>1432.138851220836</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H22">
         <v>21</v>
@@ -1161,19 +1161,19 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>3150570</v>
+        <v>3020003</v>
       </c>
       <c r="D23">
-        <v>316</v>
+        <v>577</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
       </c>
       <c r="F23">
-        <v>1347.527159027077</v>
+        <v>1418.961969679246</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <v>22</v>
@@ -1187,19 +1187,19 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>3530713</v>
+        <v>3501741</v>
       </c>
       <c r="D24">
-        <v>628</v>
+        <v>990</v>
       </c>
       <c r="E24" t="s">
         <v>67</v>
       </c>
       <c r="F24">
-        <v>1276.522840157552</v>
+        <v>1325.643009826627</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>23</v>
@@ -1213,19 +1213,19 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>3530882</v>
+        <v>3150570</v>
       </c>
       <c r="D25">
-        <v>592</v>
+        <v>316</v>
       </c>
       <c r="E25" t="s">
         <v>67</v>
       </c>
       <c r="F25">
-        <v>1303.317041775588</v>
+        <v>1343.914571141124</v>
       </c>
       <c r="G25">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H25">
         <v>24</v>
@@ -1239,19 +1239,19 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>3050342</v>
+        <v>3482806</v>
       </c>
       <c r="D26">
-        <v>219</v>
+        <v>1099</v>
       </c>
       <c r="E26" t="s">
         <v>67</v>
       </c>
       <c r="F26">
-        <v>1300</v>
+        <v>1318.670156285546</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H26">
         <v>25</v>
@@ -1265,19 +1265,19 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>3501741</v>
+        <v>3510534</v>
       </c>
       <c r="D27">
-        <v>990</v>
+        <v>309</v>
       </c>
       <c r="E27" t="s">
         <v>67</v>
       </c>
       <c r="F27">
-        <v>1310.967041775588</v>
+        <v>1366.122673113566</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H27">
         <v>26</v>
@@ -1291,19 +1291,19 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>3501297</v>
+        <v>3181007</v>
       </c>
       <c r="D28">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E28" t="s">
         <v>67</v>
       </c>
       <c r="F28">
-        <v>1284.467997386421</v>
+        <v>1311.48514041162</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H28">
         <v>27</v>
@@ -1317,19 +1317,19 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>3270010</v>
+        <v>3510342</v>
       </c>
       <c r="D29">
-        <v>223</v>
+        <v>627</v>
       </c>
       <c r="E29" t="s">
         <v>67</v>
       </c>
       <c r="F29">
-        <v>1258.820438348538</v>
+        <v>1348.199286063155</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H29">
         <v>28</v>
@@ -1343,19 +1343,19 @@
         <v>35</v>
       </c>
       <c r="C30">
-        <v>3190345</v>
+        <v>3510351</v>
       </c>
       <c r="D30">
-        <v>6443</v>
+        <v>1000</v>
       </c>
       <c r="E30" t="s">
         <v>67</v>
       </c>
       <c r="F30">
-        <v>1417.572517151001</v>
+        <v>1368.73841079284</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H30">
         <v>29</v>
@@ -1369,19 +1369,19 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>3181098</v>
+        <v>3200676</v>
       </c>
       <c r="D31">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E31" t="s">
         <v>67</v>
       </c>
       <c r="F31">
-        <v>1324.439532904136</v>
+        <v>1326.682585934931</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H31">
         <v>30</v>
@@ -1389,25 +1389,25 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
       </c>
       <c r="C32">
-        <v>3506166</v>
+        <v>3535410</v>
       </c>
       <c r="D32">
-        <v>4946</v>
+        <v>12712</v>
       </c>
       <c r="E32" t="s">
         <v>68</v>
       </c>
       <c r="F32">
-        <v>1385.188548299732</v>
+        <v>1567.574314735834</v>
       </c>
       <c r="G32">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1415,25 +1415,25 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
       </c>
       <c r="C33">
-        <v>3505800</v>
+        <v>3486239</v>
       </c>
       <c r="D33">
-        <v>4816</v>
+        <v>7809</v>
       </c>
       <c r="E33" t="s">
         <v>68</v>
       </c>
       <c r="F33">
-        <v>1397.340375817105</v>
+        <v>1452.314392110987</v>
       </c>
       <c r="G33">
-        <v>46</v>
+        <v>320</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -1441,25 +1441,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
       </c>
       <c r="C34">
-        <v>3506008</v>
+        <v>3505990</v>
       </c>
       <c r="D34">
-        <v>2750</v>
+        <v>15649</v>
       </c>
       <c r="E34" t="s">
         <v>68</v>
       </c>
       <c r="F34">
-        <v>1380.366251407857</v>
+        <v>1526.497013103252</v>
       </c>
       <c r="G34">
-        <v>43</v>
+        <v>240</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -1467,25 +1467,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
       </c>
       <c r="C35">
-        <v>3486010</v>
+        <v>3485933</v>
       </c>
       <c r="D35">
-        <v>16746</v>
+        <v>7690</v>
       </c>
       <c r="E35" t="s">
         <v>68</v>
       </c>
       <c r="F35">
-        <v>1470.970521638261</v>
+        <v>1368.375510162822</v>
       </c>
       <c r="G35">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H35">
         <v>4</v>
@@ -1493,25 +1493,25 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
         <v>41</v>
       </c>
       <c r="C36">
-        <v>3485933</v>
+        <v>3185256</v>
       </c>
       <c r="D36">
-        <v>7690</v>
+        <v>5201</v>
       </c>
       <c r="E36" t="s">
         <v>68</v>
       </c>
       <c r="F36">
-        <v>1323.834855072289</v>
+        <v>1539.949450084324</v>
       </c>
       <c r="G36">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -1519,25 +1519,25 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
       </c>
       <c r="C37">
-        <v>3185256</v>
+        <v>3535316</v>
       </c>
       <c r="D37">
-        <v>5201</v>
+        <v>10007</v>
       </c>
       <c r="E37" t="s">
         <v>68</v>
       </c>
       <c r="F37">
-        <v>1433.266071129487</v>
+        <v>1487.730887128169</v>
       </c>
       <c r="G37">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="H37">
         <v>6</v>
@@ -1545,25 +1545,25 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
       </c>
       <c r="C38">
-        <v>3505809</v>
+        <v>3486010</v>
       </c>
       <c r="D38">
-        <v>4518</v>
+        <v>16746</v>
       </c>
       <c r="E38" t="s">
         <v>68</v>
       </c>
       <c r="F38">
-        <v>1433.390767482483</v>
+        <v>1480.966352035304</v>
       </c>
       <c r="G38">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="H38">
         <v>7</v>
@@ -1571,25 +1571,25 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
       </c>
       <c r="C39">
-        <v>3486239</v>
+        <v>3205460</v>
       </c>
       <c r="D39">
-        <v>7809</v>
+        <v>4757</v>
       </c>
       <c r="E39" t="s">
         <v>68</v>
       </c>
       <c r="F39">
-        <v>1429.557726964061</v>
+        <v>1418.935149864642</v>
       </c>
       <c r="G39">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="H39">
         <v>8</v>
@@ -1597,25 +1597,25 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
       </c>
       <c r="C40">
-        <v>3565062</v>
+        <v>3055067</v>
       </c>
       <c r="D40">
-        <v>12607</v>
+        <v>6614</v>
       </c>
       <c r="E40" t="s">
         <v>68</v>
       </c>
       <c r="F40">
-        <v>1459.252879256865</v>
+        <v>1515.357207190612</v>
       </c>
       <c r="G40">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="H40">
         <v>9</v>
@@ -1623,25 +1623,25 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
       </c>
       <c r="C41">
-        <v>3535410</v>
+        <v>3155314</v>
       </c>
       <c r="D41">
-        <v>12712</v>
+        <v>1975</v>
       </c>
       <c r="E41" t="s">
         <v>68</v>
       </c>
       <c r="F41">
-        <v>1433.835756936759</v>
+        <v>1391.404930261008</v>
       </c>
       <c r="G41">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="H41">
         <v>10</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
@@ -1664,10 +1664,10 @@
         <v>68</v>
       </c>
       <c r="F42">
-        <v>1418.882580212299</v>
+        <v>1362.943873728833</v>
       </c>
       <c r="G42">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="H42">
         <v>11</v>
@@ -1675,25 +1675,25 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
       </c>
       <c r="C43">
-        <v>3535316</v>
+        <v>3485862</v>
       </c>
       <c r="D43">
-        <v>10007</v>
+        <v>1015</v>
       </c>
       <c r="E43" t="s">
         <v>68</v>
       </c>
       <c r="F43">
-        <v>1350.489851190474</v>
+        <v>1364.412926056324</v>
       </c>
       <c r="G43">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="H43">
         <v>12</v>
@@ -1701,25 +1701,25 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
       </c>
       <c r="C44">
-        <v>3535562</v>
+        <v>3486314</v>
       </c>
       <c r="D44">
-        <v>2809</v>
+        <v>730</v>
       </c>
       <c r="E44" t="s">
         <v>68</v>
       </c>
       <c r="F44">
-        <v>1300.460823014081</v>
+        <v>1332.632179965814</v>
       </c>
       <c r="G44">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="H44">
         <v>13</v>
@@ -1727,25 +1727,25 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
       </c>
       <c r="C45">
-        <v>3295157</v>
+        <v>3506166</v>
       </c>
       <c r="D45">
-        <v>2630</v>
+        <v>4946</v>
       </c>
       <c r="E45" t="s">
         <v>68</v>
       </c>
       <c r="F45">
-        <v>1396.15639582549</v>
+        <v>1319.928139139722</v>
       </c>
       <c r="G45">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="H45">
         <v>14</v>
@@ -1753,25 +1753,25 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
       </c>
       <c r="C46">
-        <v>3205460</v>
+        <v>3565062</v>
       </c>
       <c r="D46">
-        <v>4757</v>
+        <v>12607</v>
       </c>
       <c r="E46" t="s">
         <v>68</v>
       </c>
       <c r="F46">
-        <v>1339.338439782384</v>
+        <v>1384.148449119093</v>
       </c>
       <c r="G46">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="H46">
         <v>15</v>
@@ -1779,25 +1779,25 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
       </c>
       <c r="C47">
-        <v>3185579</v>
+        <v>3195219</v>
       </c>
       <c r="D47">
-        <v>622</v>
+        <v>965</v>
       </c>
       <c r="E47" t="s">
         <v>68</v>
       </c>
       <c r="F47">
-        <v>1336.029571206116</v>
+        <v>1394.215016030839</v>
       </c>
       <c r="G47">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="H47">
         <v>16</v>
@@ -1805,25 +1805,25 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
       </c>
       <c r="C48">
-        <v>3535602</v>
+        <v>3185579</v>
       </c>
       <c r="D48">
-        <v>1197</v>
+        <v>622</v>
       </c>
       <c r="E48" t="s">
         <v>68</v>
       </c>
       <c r="F48">
-        <v>1317.490878282309</v>
+        <v>1270.18065537467</v>
       </c>
       <c r="G48">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H48">
         <v>17</v>
@@ -1831,25 +1831,25 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
       <c r="C49">
-        <v>3506079</v>
+        <v>3535602</v>
       </c>
       <c r="D49">
-        <v>1793</v>
+        <v>1197</v>
       </c>
       <c r="E49" t="s">
         <v>68</v>
       </c>
       <c r="F49">
-        <v>1357.121172323346</v>
+        <v>1354.221426868397</v>
       </c>
       <c r="G49">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="H49">
         <v>18</v>
@@ -1857,25 +1857,25 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
       <c r="C50">
-        <v>3486563</v>
+        <v>3505800</v>
       </c>
       <c r="D50">
-        <v>540</v>
+        <v>4816</v>
       </c>
       <c r="E50" t="s">
         <v>68</v>
       </c>
       <c r="F50">
-        <v>1311.166137411528</v>
+        <v>1342.212369570246</v>
       </c>
       <c r="G50">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="H50">
         <v>19</v>
@@ -1883,25 +1883,25 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
       <c r="C51">
-        <v>3505990</v>
+        <v>3295322</v>
       </c>
       <c r="D51">
-        <v>15649</v>
+        <v>429</v>
       </c>
       <c r="E51" t="s">
         <v>68</v>
       </c>
       <c r="F51">
-        <v>1306.379279432033</v>
+        <v>1356.433975411777</v>
       </c>
       <c r="G51">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="H51">
         <v>20</v>
@@ -1909,25 +1909,25 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
       </c>
       <c r="C52">
-        <v>3515087</v>
+        <v>3506008</v>
       </c>
       <c r="D52">
-        <v>5041</v>
+        <v>2750</v>
       </c>
       <c r="E52" t="s">
         <v>68</v>
       </c>
       <c r="F52">
-        <v>1404.646654793783</v>
+        <v>1376.096756110624</v>
       </c>
       <c r="G52">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H52">
         <v>21</v>
@@ -1935,25 +1935,25 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
         <v>58</v>
       </c>
       <c r="C53">
-        <v>3205491</v>
+        <v>3485849</v>
       </c>
       <c r="D53">
-        <v>232</v>
+        <v>454</v>
       </c>
       <c r="E53" t="s">
         <v>68</v>
       </c>
       <c r="F53">
-        <v>1271.460233255384</v>
+        <v>1387.985398655105</v>
       </c>
       <c r="G53">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>22</v>
@@ -1961,25 +1961,25 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
       </c>
       <c r="C54">
-        <v>3205407</v>
+        <v>3535601</v>
       </c>
       <c r="D54">
-        <v>328</v>
+        <v>217</v>
       </c>
       <c r="E54" t="s">
         <v>68</v>
       </c>
       <c r="F54">
-        <v>1279.6409157668</v>
+        <v>1288.885083352514</v>
       </c>
       <c r="G54">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="H54">
         <v>23</v>
@@ -1987,25 +1987,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
       </c>
       <c r="C55">
-        <v>3485862</v>
+        <v>3555052</v>
       </c>
       <c r="D55">
-        <v>1015</v>
+        <v>368</v>
       </c>
       <c r="E55" t="s">
         <v>68</v>
       </c>
       <c r="F55">
-        <v>1254.742569832695</v>
+        <v>1317.882572802605</v>
       </c>
       <c r="G55">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H55">
         <v>24</v>
@@ -2013,25 +2013,25 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
       </c>
       <c r="C56">
-        <v>3505998</v>
+        <v>3505809</v>
       </c>
       <c r="D56">
-        <v>227</v>
+        <v>4518</v>
       </c>
       <c r="E56" t="s">
         <v>68</v>
       </c>
       <c r="F56">
-        <v>1283.181624734083</v>
+        <v>1382.778259880005</v>
       </c>
       <c r="G56">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H56">
         <v>25</v>
@@ -2039,25 +2039,25 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
         <v>62</v>
       </c>
       <c r="C57">
-        <v>3155314</v>
+        <v>3205491</v>
       </c>
       <c r="D57">
-        <v>1975</v>
+        <v>232</v>
       </c>
       <c r="E57" t="s">
         <v>68</v>
       </c>
       <c r="F57">
-        <v>1292.837942156164</v>
+        <v>1233.62937146656</v>
       </c>
       <c r="G57">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H57">
         <v>26</v>
@@ -2065,25 +2065,25 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
       </c>
       <c r="C58">
-        <v>3155324</v>
+        <v>3205407</v>
       </c>
       <c r="D58">
-        <v>1001</v>
+        <v>328</v>
       </c>
       <c r="E58" t="s">
         <v>68</v>
       </c>
       <c r="F58">
-        <v>1278.892632708157</v>
+        <v>1340.587582817275</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H58">
         <v>27</v>
@@ -2091,25 +2091,25 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
       </c>
       <c r="C59">
-        <v>3055067</v>
+        <v>3486563</v>
       </c>
       <c r="D59">
-        <v>6614</v>
+        <v>540</v>
       </c>
       <c r="E59" t="s">
         <v>68</v>
       </c>
       <c r="F59">
-        <v>1268.756202990765</v>
+        <v>1301.66880783078</v>
       </c>
       <c r="G59">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H59">
         <v>28</v>
@@ -2117,25 +2117,25 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
       </c>
       <c r="C60">
-        <v>3555052</v>
+        <v>3435197</v>
       </c>
       <c r="D60">
-        <v>368</v>
+        <v>229</v>
       </c>
       <c r="E60" t="s">
         <v>68</v>
       </c>
       <c r="F60">
-        <v>1259.259078711428</v>
+        <v>1301.128260983671</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H60">
         <v>29</v>
@@ -2143,25 +2143,25 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
         <v>66</v>
       </c>
       <c r="C61">
-        <v>3295144</v>
+        <v>3506079</v>
       </c>
       <c r="D61">
-        <v>211</v>
+        <v>1793</v>
       </c>
       <c r="E61" t="s">
         <v>68</v>
       </c>
       <c r="F61">
-        <v>1275.608957739406</v>
+        <v>1347.888331766129</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H61">
         <v>30</v>

--- a/elo/knapsack/fantasydf_actual.xlsx
+++ b/elo/knapsack/fantasydf_actual.xlsx
@@ -37,184 +37,184 @@
     <t>place</t>
   </si>
   <si>
+    <t>Emil IVERSEN</t>
+  </si>
+  <si>
+    <t>Sjur ROETHE</t>
+  </si>
+  <si>
+    <t>Paal GOLBERG</t>
+  </si>
+  <si>
+    <t>Simen Hegstad KRUEGER</t>
+  </si>
+  <si>
     <t>Alexander BOLSHUNOV</t>
   </si>
   <si>
-    <t>Maurice MANIFICAT</t>
+    <t>Hans Christer HOLUND</t>
+  </si>
+  <si>
+    <t>Dario COLOGNA</t>
+  </si>
+  <si>
+    <t>Iivo NISKANEN</t>
+  </si>
+  <si>
+    <t>Jens BURMAN</t>
+  </si>
+  <si>
+    <t>Friedrich MOCH</t>
   </si>
   <si>
     <t>Denis SPITSOV</t>
   </si>
   <si>
+    <t>Florian NOTZ</t>
+  </si>
+  <si>
+    <t>Alexey CHERVOTKIN</t>
+  </si>
+  <si>
+    <t>Evgeniy BELOV</t>
+  </si>
+  <si>
+    <t>Andrew MUSGRAVE</t>
+  </si>
+  <si>
+    <t>Martin Loewstroem NYENGET</t>
+  </si>
+  <si>
     <t>Ivan YAKIMUSHKIN</t>
   </si>
   <si>
-    <t>Artem MALTSEV</t>
-  </si>
-  <si>
-    <t>Evgeniy BELOV</t>
+    <t>Gus SCHUMACHER</t>
+  </si>
+  <si>
+    <t>Jason RUEESCH</t>
+  </si>
+  <si>
+    <t>Jonas DOBLER</t>
+  </si>
+  <si>
+    <t>Scott PATTERSON</t>
   </si>
   <si>
     <t>Andrey MELNICHENKO</t>
   </si>
   <si>
-    <t>Dario COLOGNA</t>
-  </si>
-  <si>
-    <t>Clement PARISSE</t>
-  </si>
-  <si>
-    <t>Hugo LAPALUS</t>
-  </si>
-  <si>
-    <t>Ilia SEMIKOV</t>
+    <t>Bjoern SANDSTROEM</t>
   </si>
   <si>
     <t>Lucas BOEGL</t>
   </si>
   <si>
-    <t>Adrien BACKSCHEIDER</t>
-  </si>
-  <si>
-    <t>Federico PELLEGRINO</t>
-  </si>
-  <si>
-    <t>Francesco DE FABIANI</t>
-  </si>
-  <si>
-    <t>Oskar SVENSSON</t>
-  </si>
-  <si>
-    <t>Alexey CHERVOTKIN</t>
-  </si>
-  <si>
-    <t>Gus SCHUMACHER</t>
-  </si>
-  <si>
-    <t>Florian NOTZ</t>
-  </si>
-  <si>
-    <t>Jules LAPIERRE</t>
-  </si>
-  <si>
-    <t>Jonas DOBLER</t>
-  </si>
-  <si>
-    <t>Ireneu ESTEVE ALTIMIRAS</t>
-  </si>
-  <si>
-    <t>William POROMAA</t>
-  </si>
-  <si>
-    <t>Michal NOVAK</t>
-  </si>
-  <si>
-    <t>Alexander TERENTEV</t>
-  </si>
-  <si>
-    <t>Beda KLEE</t>
-  </si>
-  <si>
-    <t>Markus VUORELA</t>
+    <t>Andrew YOUNG</t>
+  </si>
+  <si>
+    <t>Ristomatti HAKOLA</t>
   </si>
   <si>
     <t>Jonas BAUMANN</t>
   </si>
   <si>
-    <t>Roman FURGER</t>
-  </si>
-  <si>
-    <t>Janosch BRUGGER</t>
+    <t>Andrey LARKOV</t>
+  </si>
+  <si>
+    <t>Russell KENNEDY</t>
+  </si>
+  <si>
+    <t>Thomas MALONEY WESTGAARD</t>
+  </si>
+  <si>
+    <t>Therese JOHAUG</t>
+  </si>
+  <si>
+    <t>Helene Marie FOSSESHOLM</t>
+  </si>
+  <si>
+    <t>Heidi WENG</t>
+  </si>
+  <si>
+    <t>Ebba ANDERSSON</t>
   </si>
   <si>
     <t>Jessie DIGGINS</t>
   </si>
   <si>
-    <t>Yulia STUPAK</t>
-  </si>
-  <si>
-    <t>Ebba ANDERSSON</t>
-  </si>
-  <si>
-    <t>Tatiana SORINA</t>
+    <t>Natalia NEPRYAEVA</t>
+  </si>
+  <si>
+    <t>Charlotte KALLA</t>
+  </si>
+  <si>
+    <t>Teresa STADLOBER</t>
   </si>
   <si>
     <t>Krista PARMAKOSKI</t>
   </si>
   <si>
+    <t>Anne Kjersti KALVAA</t>
+  </si>
+  <si>
     <t>Rosie BRENNAN</t>
   </si>
   <si>
-    <t>Natalia NEPRYAEVA</t>
+    <t>Kerttu NISKANEN</t>
   </si>
   <si>
     <t>Katharina HENNIG</t>
   </si>
   <si>
-    <t>Teresa STADLOBER</t>
-  </si>
-  <si>
-    <t>Katerina RAZYMOVA</t>
-  </si>
-  <si>
-    <t>Nadine FAEHNDRICH</t>
-  </si>
-  <si>
-    <t>Alisa ZHAMBALOVA</t>
+    <t>Tiril Udnes WENG</t>
+  </si>
+  <si>
+    <t>Lotta Udnes WENG</t>
+  </si>
+  <si>
+    <t>Anna NECHAEVSKAYA</t>
+  </si>
+  <si>
+    <t>Emma RIBOM</t>
   </si>
   <si>
     <t>Yana KIRPICHENKO</t>
   </si>
   <si>
-    <t>Linn SVAHN</t>
-  </si>
-  <si>
-    <t>Anamarija LAMPIC</t>
-  </si>
-  <si>
-    <t>Delphine CLAUDEL</t>
-  </si>
-  <si>
     <t>Johanna MATINTALO</t>
   </si>
   <si>
-    <t>Hailey SWIRBUL</t>
-  </si>
-  <si>
-    <t>Maja DAHLQVIST</t>
-  </si>
-  <si>
-    <t>Anna COMARELLA</t>
-  </si>
-  <si>
-    <t>Emma RIBOM</t>
-  </si>
-  <si>
-    <t>Anna NECHAEVSKAYA</t>
-  </si>
-  <si>
-    <t>Katharine OGDEN</t>
-  </si>
-  <si>
-    <t>Patricija EIDUKA</t>
-  </si>
-  <si>
-    <t>Jonna SUNDLING</t>
-  </si>
-  <si>
-    <t>Antonia FRAEBEL</t>
+    <t>Masako ISHIDA</t>
+  </si>
+  <si>
+    <t>Laura MONONEN</t>
+  </si>
+  <si>
+    <t>Evelina SETTLIN</t>
+  </si>
+  <si>
+    <t>Riitta-Liisa ROPONEN</t>
+  </si>
+  <si>
+    <t>Katherine STEWART-JONES</t>
   </si>
   <si>
     <t>Pia FINK</t>
   </si>
   <si>
-    <t>Hristina MATSOKINA</t>
-  </si>
-  <si>
-    <t>Izabela MARCISZ</t>
-  </si>
-  <si>
-    <t>Moa LUNDGREN</t>
+    <t>Mariya ISTOMINA</t>
+  </si>
+  <si>
+    <t>Cendrine BROWNE</t>
+  </si>
+  <si>
+    <t>Alija IKSANOVA</t>
+  </si>
+  <si>
+    <t>Sofia HENRIKSSON</t>
+  </si>
+  <si>
+    <t>Lovisa MODIG</t>
   </si>
   <si>
     <t>m</t>
@@ -615,19 +615,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>3482277</v>
+        <v>3421320</v>
       </c>
       <c r="D2">
-        <v>22366</v>
+        <v>8035</v>
       </c>
       <c r="E2" t="s">
         <v>67</v>
       </c>
       <c r="F2">
-        <v>1597.687829068173</v>
+        <v>1654.022709101383</v>
       </c>
       <c r="G2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -641,19 +641,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>3190111</v>
+        <v>3420605</v>
       </c>
       <c r="D3">
-        <v>1450</v>
+        <v>7911</v>
       </c>
       <c r="E3" t="s">
         <v>67</v>
       </c>
       <c r="F3">
-        <v>1494.125492767264</v>
+        <v>1617.211068170727</v>
       </c>
       <c r="G3">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -667,19 +667,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>3482280</v>
+        <v>3420909</v>
       </c>
       <c r="D4">
-        <v>2646</v>
+        <v>7292</v>
       </c>
       <c r="E4" t="s">
         <v>67</v>
       </c>
       <c r="F4">
-        <v>1534.973020245729</v>
+        <v>1622.006909508796</v>
       </c>
       <c r="G4">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -693,19 +693,19 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>3482105</v>
+        <v>3421779</v>
       </c>
       <c r="D5">
-        <v>5172</v>
+        <v>6969</v>
       </c>
       <c r="E5" t="s">
         <v>67</v>
       </c>
       <c r="F5">
-        <v>1497.3700667749</v>
+        <v>1629.172610098531</v>
       </c>
       <c r="G5">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -719,19 +719,19 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>3481432</v>
+        <v>3482277</v>
       </c>
       <c r="D6">
-        <v>4522</v>
+        <v>22412</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
       </c>
       <c r="F6">
-        <v>1470.798640626109</v>
+        <v>1777.344680752224</v>
       </c>
       <c r="G6">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -745,19 +745,19 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>3481161</v>
+        <v>3420586</v>
       </c>
       <c r="D7">
-        <v>3443</v>
+        <v>7511</v>
       </c>
       <c r="E7" t="s">
         <v>67</v>
       </c>
       <c r="F7">
-        <v>1517.064050655186</v>
+        <v>1605.51038742118</v>
       </c>
       <c r="G7">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -771,19 +771,19 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>3481803</v>
+        <v>3510023</v>
       </c>
       <c r="D8">
-        <v>7488</v>
+        <v>3912</v>
       </c>
       <c r="E8" t="s">
         <v>67</v>
       </c>
       <c r="F8">
-        <v>1560.921591759138</v>
+        <v>1561.442678804019</v>
       </c>
       <c r="G8">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -797,19 +797,19 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>3510023</v>
+        <v>3180535</v>
       </c>
       <c r="D9">
-        <v>4296</v>
+        <v>11382</v>
       </c>
       <c r="E9" t="s">
         <v>67</v>
       </c>
       <c r="F9">
-        <v>1545.280372091731</v>
+        <v>1615.181108971105</v>
       </c>
       <c r="G9">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -823,19 +823,19 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>3190302</v>
+        <v>3501223</v>
       </c>
       <c r="D10">
-        <v>1470</v>
+        <v>1886</v>
       </c>
       <c r="E10" t="s">
         <v>67</v>
       </c>
       <c r="F10">
-        <v>1499.963952329231</v>
+        <v>1515.796879070639</v>
       </c>
       <c r="G10">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>9</v>
@@ -849,19 +849,19 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>3190529</v>
+        <v>3200802</v>
       </c>
       <c r="D11">
-        <v>471</v>
+        <v>219</v>
       </c>
       <c r="E11" t="s">
         <v>67</v>
       </c>
       <c r="F11">
-        <v>1423.014075435246</v>
+        <v>1347.874629241512</v>
       </c>
       <c r="G11">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -875,19 +875,19 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>3481988</v>
+        <v>3482280</v>
       </c>
       <c r="D12">
-        <v>1838</v>
+        <v>2834</v>
       </c>
       <c r="E12" t="s">
         <v>67</v>
       </c>
       <c r="F12">
-        <v>1320.173495903801</v>
+        <v>1579.029160125272</v>
       </c>
       <c r="G12">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -901,19 +901,19 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>3200205</v>
+        <v>3200376</v>
       </c>
       <c r="D13">
-        <v>1319</v>
+        <v>811</v>
       </c>
       <c r="E13" t="s">
         <v>67</v>
       </c>
       <c r="F13">
-        <v>1451.279998316782</v>
+        <v>1433.850278135134</v>
       </c>
       <c r="G13">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>12</v>
@@ -927,19 +927,19 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>3190268</v>
+        <v>3482119</v>
       </c>
       <c r="D14">
-        <v>861</v>
+        <v>3352</v>
       </c>
       <c r="E14" t="s">
         <v>67</v>
       </c>
       <c r="F14">
-        <v>1464.918076067131</v>
+        <v>1521.340329089947</v>
       </c>
       <c r="G14">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H14">
         <v>13</v>
@@ -953,19 +953,19 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>3290326</v>
+        <v>3481161</v>
       </c>
       <c r="D15">
-        <v>11514</v>
+        <v>3244</v>
       </c>
       <c r="E15" t="s">
         <v>67</v>
       </c>
       <c r="F15">
-        <v>1347.501924694395</v>
+        <v>1604.954042416332</v>
       </c>
       <c r="G15">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="H15">
         <v>14</v>
@@ -979,19 +979,19 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>3290379</v>
+        <v>3220002</v>
       </c>
       <c r="D16">
-        <v>3407</v>
+        <v>3949</v>
       </c>
       <c r="E16" t="s">
         <v>67</v>
       </c>
       <c r="F16">
-        <v>1452.127049740195</v>
+        <v>1488.999121834328</v>
       </c>
       <c r="G16">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -1005,19 +1005,19 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>3501255</v>
+        <v>3421154</v>
       </c>
       <c r="D17">
-        <v>978</v>
+        <v>1935</v>
       </c>
       <c r="E17" t="s">
         <v>67</v>
       </c>
       <c r="F17">
-        <v>1309.690950161112</v>
+        <v>1545.294628689632</v>
       </c>
       <c r="G17">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="H17">
         <v>16</v>
@@ -1031,19 +1031,19 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>3482119</v>
+        <v>3482105</v>
       </c>
       <c r="D18">
-        <v>4000</v>
+        <v>4730</v>
       </c>
       <c r="E18" t="s">
         <v>67</v>
       </c>
       <c r="F18">
-        <v>1437.095938241987</v>
+        <v>1608.119404821378</v>
       </c>
       <c r="G18">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H18">
         <v>17</v>
@@ -1060,16 +1060,16 @@
         <v>3530882</v>
       </c>
       <c r="D19">
-        <v>592</v>
+        <v>626</v>
       </c>
       <c r="E19" t="s">
         <v>67</v>
       </c>
       <c r="F19">
-        <v>1344.533629505135</v>
+        <v>1439.079799505994</v>
       </c>
       <c r="G19">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>18</v>
@@ -1083,19 +1083,19 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>3200376</v>
+        <v>3510479</v>
       </c>
       <c r="D20">
-        <v>753</v>
+        <v>333</v>
       </c>
       <c r="E20" t="s">
         <v>67</v>
       </c>
       <c r="F20">
-        <v>1468.368528204986</v>
+        <v>1364.043363736296</v>
       </c>
       <c r="G20">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="H20">
         <v>19</v>
@@ -1109,19 +1109,19 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>3190398</v>
+        <v>3200356</v>
       </c>
       <c r="D21">
-        <v>585</v>
+        <v>617</v>
       </c>
       <c r="E21" t="s">
         <v>67</v>
       </c>
       <c r="F21">
-        <v>1399.419179068256</v>
+        <v>1413.499472780786</v>
       </c>
       <c r="G21">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H21">
         <v>20</v>
@@ -1135,19 +1135,19 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>3200356</v>
+        <v>3530532</v>
       </c>
       <c r="D22">
-        <v>579</v>
+        <v>244</v>
       </c>
       <c r="E22" t="s">
         <v>67</v>
       </c>
       <c r="F22">
-        <v>1432.138851220836</v>
+        <v>1300.557926625242</v>
       </c>
       <c r="G22">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H22">
         <v>21</v>
@@ -1161,19 +1161,19 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>3020003</v>
+        <v>3481803</v>
       </c>
       <c r="D23">
-        <v>577</v>
+        <v>6504</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
       </c>
       <c r="F23">
-        <v>1418.961969679246</v>
+        <v>1619.532257920505</v>
       </c>
       <c r="G23">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="H23">
         <v>22</v>
@@ -1187,19 +1187,19 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>3501741</v>
+        <v>3501297</v>
       </c>
       <c r="D24">
-        <v>990</v>
+        <v>232</v>
       </c>
       <c r="E24" t="s">
         <v>67</v>
       </c>
       <c r="F24">
-        <v>1325.643009826627</v>
+        <v>1348.652248550293</v>
       </c>
       <c r="G24">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="H24">
         <v>23</v>
@@ -1213,19 +1213,19 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>3150570</v>
+        <v>3200205</v>
       </c>
       <c r="D25">
-        <v>316</v>
+        <v>1392</v>
       </c>
       <c r="E25" t="s">
         <v>67</v>
       </c>
       <c r="F25">
-        <v>1343.914571141124</v>
+        <v>1459.936629885065</v>
       </c>
       <c r="G25">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="H25">
         <v>24</v>
@@ -1239,19 +1239,19 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>3482806</v>
+        <v>3220016</v>
       </c>
       <c r="D26">
-        <v>1099</v>
+        <v>5736</v>
       </c>
       <c r="E26" t="s">
         <v>67</v>
       </c>
       <c r="F26">
-        <v>1318.670156285546</v>
+        <v>1551.2499121905</v>
       </c>
       <c r="G26">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H26">
         <v>25</v>
@@ -1265,19 +1265,19 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>3510534</v>
+        <v>3180508</v>
       </c>
       <c r="D27">
-        <v>309</v>
+        <v>1770</v>
       </c>
       <c r="E27" t="s">
         <v>67</v>
       </c>
       <c r="F27">
-        <v>1366.122673113566</v>
+        <v>1548.679737406534</v>
       </c>
       <c r="G27">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>26</v>
@@ -1291,19 +1291,19 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>3181007</v>
+        <v>3510342</v>
       </c>
       <c r="D28">
-        <v>233</v>
+        <v>621</v>
       </c>
       <c r="E28" t="s">
         <v>67</v>
       </c>
       <c r="F28">
-        <v>1311.48514041162</v>
+        <v>1385.60139508448</v>
       </c>
       <c r="G28">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H28">
         <v>27</v>
@@ -1317,19 +1317,19 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>3510342</v>
+        <v>3481132</v>
       </c>
       <c r="D29">
-        <v>627</v>
+        <v>2296</v>
       </c>
       <c r="E29" t="s">
         <v>67</v>
       </c>
       <c r="F29">
-        <v>1348.199286063155</v>
+        <v>1546.402969561194</v>
       </c>
       <c r="G29">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H29">
         <v>28</v>
@@ -1343,19 +1343,19 @@
         <v>35</v>
       </c>
       <c r="C30">
-        <v>3510351</v>
+        <v>3100268</v>
       </c>
       <c r="D30">
-        <v>1000</v>
+        <v>224</v>
       </c>
       <c r="E30" t="s">
         <v>67</v>
       </c>
       <c r="F30">
-        <v>1368.73841079284</v>
+        <v>1292.913759889294</v>
       </c>
       <c r="G30">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H30">
         <v>29</v>
@@ -1369,7 +1369,7 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>3200676</v>
+        <v>3270010</v>
       </c>
       <c r="D31">
         <v>225</v>
@@ -1378,10 +1378,10 @@
         <v>67</v>
       </c>
       <c r="F31">
-        <v>1326.682585934931</v>
+        <v>1288.646401360871</v>
       </c>
       <c r="G31">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>30</v>
@@ -1389,25 +1389,25 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
       </c>
       <c r="C32">
-        <v>3535410</v>
+        <v>3425301</v>
       </c>
       <c r="D32">
-        <v>12712</v>
+        <v>17241</v>
       </c>
       <c r="E32" t="s">
         <v>68</v>
       </c>
       <c r="F32">
-        <v>1567.574314735834</v>
+        <v>1729.625138557711</v>
       </c>
       <c r="G32">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1415,25 +1415,25 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
       </c>
       <c r="C33">
-        <v>3486239</v>
+        <v>3427109</v>
       </c>
       <c r="D33">
-        <v>7809</v>
+        <v>1661</v>
       </c>
       <c r="E33" t="s">
         <v>68</v>
       </c>
       <c r="F33">
-        <v>1452.314392110987</v>
+        <v>1436.971393614021</v>
       </c>
       <c r="G33">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -1441,25 +1441,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
       </c>
       <c r="C34">
-        <v>3505990</v>
+        <v>3425499</v>
       </c>
       <c r="D34">
-        <v>15649</v>
+        <v>8931</v>
       </c>
       <c r="E34" t="s">
         <v>68</v>
       </c>
       <c r="F34">
-        <v>1526.497013103252</v>
+        <v>1614.62888462844</v>
       </c>
       <c r="G34">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -1467,25 +1467,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
       </c>
       <c r="C35">
-        <v>3485933</v>
+        <v>3505990</v>
       </c>
       <c r="D35">
-        <v>7690</v>
+        <v>12369</v>
       </c>
       <c r="E35" t="s">
         <v>68</v>
       </c>
       <c r="F35">
-        <v>1368.375510162822</v>
+        <v>1643.255043363425</v>
       </c>
       <c r="G35">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H35">
         <v>4</v>
@@ -1493,25 +1493,25 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
         <v>41</v>
       </c>
       <c r="C36">
-        <v>3185256</v>
+        <v>3535410</v>
       </c>
       <c r="D36">
-        <v>5201</v>
+        <v>13110</v>
       </c>
       <c r="E36" t="s">
         <v>68</v>
       </c>
       <c r="F36">
-        <v>1539.949450084324</v>
+        <v>1655.790456052109</v>
       </c>
       <c r="G36">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -1519,25 +1519,25 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
       </c>
       <c r="C37">
-        <v>3535316</v>
+        <v>3486010</v>
       </c>
       <c r="D37">
-        <v>10007</v>
+        <v>16886</v>
       </c>
       <c r="E37" t="s">
         <v>68</v>
       </c>
       <c r="F37">
-        <v>1487.730887128169</v>
+        <v>1653.282919282325</v>
       </c>
       <c r="G37">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="H37">
         <v>6</v>
@@ -1545,25 +1545,25 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
       </c>
       <c r="C38">
-        <v>3486010</v>
+        <v>3505217</v>
       </c>
       <c r="D38">
-        <v>16746</v>
+        <v>2653</v>
       </c>
       <c r="E38" t="s">
         <v>68</v>
       </c>
       <c r="F38">
-        <v>1480.966352035304</v>
+        <v>1560.328172659495</v>
       </c>
       <c r="G38">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>7</v>
@@ -1571,25 +1571,25 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
       </c>
       <c r="C39">
-        <v>3205460</v>
+        <v>3055067</v>
       </c>
       <c r="D39">
-        <v>4757</v>
+        <v>5621</v>
       </c>
       <c r="E39" t="s">
         <v>68</v>
       </c>
       <c r="F39">
-        <v>1418.935149864642</v>
+        <v>1522.476034591489</v>
       </c>
       <c r="G39">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>8</v>
@@ -1597,25 +1597,25 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
       </c>
       <c r="C40">
-        <v>3055067</v>
+        <v>3185256</v>
       </c>
       <c r="D40">
-        <v>6614</v>
+        <v>4773</v>
       </c>
       <c r="E40" t="s">
         <v>68</v>
       </c>
       <c r="F40">
-        <v>1515.357207190612</v>
+        <v>1615.065537813289</v>
       </c>
       <c r="G40">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="H40">
         <v>9</v>
@@ -1623,25 +1623,25 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
       </c>
       <c r="C41">
-        <v>3155314</v>
+        <v>3425669</v>
       </c>
       <c r="D41">
-        <v>1975</v>
+        <v>1739</v>
       </c>
       <c r="E41" t="s">
         <v>68</v>
       </c>
       <c r="F41">
-        <v>1391.404930261008</v>
+        <v>1499.543117399032</v>
       </c>
       <c r="G41">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="H41">
         <v>10</v>
@@ -1649,25 +1649,25 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
       </c>
       <c r="C42">
-        <v>3515221</v>
+        <v>3535316</v>
       </c>
       <c r="D42">
-        <v>10716</v>
+        <v>10497</v>
       </c>
       <c r="E42" t="s">
         <v>68</v>
       </c>
       <c r="F42">
-        <v>1362.943873728833</v>
+        <v>1606.345859770098</v>
       </c>
       <c r="G42">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="H42">
         <v>11</v>
@@ -1675,25 +1675,25 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
       </c>
       <c r="C43">
-        <v>3485862</v>
+        <v>3185168</v>
       </c>
       <c r="D43">
-        <v>1015</v>
+        <v>3401</v>
       </c>
       <c r="E43" t="s">
         <v>68</v>
       </c>
       <c r="F43">
-        <v>1364.412926056324</v>
+        <v>1528.947116277808</v>
       </c>
       <c r="G43">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="H43">
         <v>12</v>
@@ -1701,25 +1701,25 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
       </c>
       <c r="C44">
-        <v>3486314</v>
+        <v>3205460</v>
       </c>
       <c r="D44">
-        <v>730</v>
+        <v>4234</v>
       </c>
       <c r="E44" t="s">
         <v>68</v>
       </c>
       <c r="F44">
-        <v>1332.632179965814</v>
+        <v>1538.293480638018</v>
       </c>
       <c r="G44">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H44">
         <v>13</v>
@@ -1727,25 +1727,25 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
       </c>
       <c r="C45">
-        <v>3506166</v>
+        <v>3426201</v>
       </c>
       <c r="D45">
-        <v>4946</v>
+        <v>3784</v>
       </c>
       <c r="E45" t="s">
         <v>68</v>
       </c>
       <c r="F45">
-        <v>1319.928139139722</v>
+        <v>1550.848380809625</v>
       </c>
       <c r="G45">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="H45">
         <v>14</v>
@@ -1753,25 +1753,25 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
       </c>
       <c r="C46">
-        <v>3565062</v>
+        <v>3426200</v>
       </c>
       <c r="D46">
-        <v>12607</v>
+        <v>1558</v>
       </c>
       <c r="E46" t="s">
         <v>68</v>
       </c>
       <c r="F46">
-        <v>1384.148449119093</v>
+        <v>1496.10883481682</v>
       </c>
       <c r="G46">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H46">
         <v>15</v>
@@ -1779,25 +1779,25 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
       </c>
       <c r="C47">
-        <v>3195219</v>
+        <v>3485849</v>
       </c>
       <c r="D47">
-        <v>965</v>
+        <v>533</v>
       </c>
       <c r="E47" t="s">
         <v>68</v>
       </c>
       <c r="F47">
-        <v>1394.215016030839</v>
+        <v>1367.94839486276</v>
       </c>
       <c r="G47">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="H47">
         <v>16</v>
@@ -1805,25 +1805,25 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
       </c>
       <c r="C48">
-        <v>3185579</v>
+        <v>3506008</v>
       </c>
       <c r="D48">
-        <v>622</v>
+        <v>2601</v>
       </c>
       <c r="E48" t="s">
         <v>68</v>
       </c>
       <c r="F48">
-        <v>1270.18065537467</v>
+        <v>1499.08519364115</v>
       </c>
       <c r="G48">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H48">
         <v>17</v>
@@ -1831,25 +1831,25 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
       <c r="C49">
-        <v>3535602</v>
+        <v>3486314</v>
       </c>
       <c r="D49">
-        <v>1197</v>
+        <v>918</v>
       </c>
       <c r="E49" t="s">
         <v>68</v>
       </c>
       <c r="F49">
-        <v>1354.221426868397</v>
+        <v>1410.182052808671</v>
       </c>
       <c r="G49">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H49">
         <v>18</v>
@@ -1857,25 +1857,25 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
       <c r="C50">
-        <v>3505800</v>
+        <v>3185579</v>
       </c>
       <c r="D50">
-        <v>4816</v>
+        <v>724</v>
       </c>
       <c r="E50" t="s">
         <v>68</v>
       </c>
       <c r="F50">
-        <v>1342.212369570246</v>
+        <v>1422.695070504849</v>
       </c>
       <c r="G50">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="H50">
         <v>19</v>
@@ -1883,25 +1883,25 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
       <c r="C51">
-        <v>3295322</v>
+        <v>1274580</v>
       </c>
       <c r="D51">
-        <v>429</v>
+        <v>619</v>
       </c>
       <c r="E51" t="s">
         <v>68</v>
       </c>
       <c r="F51">
-        <v>1356.433975411777</v>
+        <v>1394.955060040779</v>
       </c>
       <c r="G51">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H51">
         <v>20</v>
@@ -1909,25 +1909,25 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
       </c>
       <c r="C52">
-        <v>3506008</v>
+        <v>3185114</v>
       </c>
       <c r="D52">
-        <v>2750</v>
+        <v>948</v>
       </c>
       <c r="E52" t="s">
         <v>68</v>
       </c>
       <c r="F52">
-        <v>1376.096756110624</v>
+        <v>1445.579508124182</v>
       </c>
       <c r="G52">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H52">
         <v>21</v>
@@ -1935,25 +1935,25 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
         <v>58</v>
       </c>
       <c r="C53">
-        <v>3485849</v>
+        <v>3505675</v>
       </c>
       <c r="D53">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="E53" t="s">
         <v>68</v>
       </c>
       <c r="F53">
-        <v>1387.985398655105</v>
+        <v>1370.82519917085</v>
       </c>
       <c r="G53">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="H53">
         <v>22</v>
@@ -1961,25 +1961,25 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
       </c>
       <c r="C54">
-        <v>3535601</v>
+        <v>1255374</v>
       </c>
       <c r="D54">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E54" t="s">
         <v>68</v>
       </c>
       <c r="F54">
-        <v>1288.885083352514</v>
+        <v>1398.853791534179</v>
       </c>
       <c r="G54">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="H54">
         <v>23</v>
@@ -1987,25 +1987,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
       </c>
       <c r="C55">
-        <v>3555052</v>
+        <v>3105214</v>
       </c>
       <c r="D55">
-        <v>368</v>
+        <v>221</v>
       </c>
       <c r="E55" t="s">
         <v>68</v>
       </c>
       <c r="F55">
-        <v>1317.882572802605</v>
+        <v>1304.675345174684</v>
       </c>
       <c r="G55">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="H55">
         <v>24</v>
@@ -2013,25 +2013,25 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
       </c>
       <c r="C56">
-        <v>3505809</v>
+        <v>3205407</v>
       </c>
       <c r="D56">
-        <v>4518</v>
+        <v>359</v>
       </c>
       <c r="E56" t="s">
         <v>68</v>
       </c>
       <c r="F56">
-        <v>1382.778259880005</v>
+        <v>1353.559135142604</v>
       </c>
       <c r="G56">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H56">
         <v>25</v>
@@ -2039,25 +2039,25 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
         <v>62</v>
       </c>
       <c r="C57">
-        <v>3205491</v>
+        <v>3486548</v>
       </c>
       <c r="D57">
-        <v>232</v>
+        <v>653</v>
       </c>
       <c r="E57" t="s">
         <v>68</v>
       </c>
       <c r="F57">
-        <v>1233.62937146656</v>
+        <v>1387.697663336817</v>
       </c>
       <c r="G57">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H57">
         <v>26</v>
@@ -2065,25 +2065,25 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
       </c>
       <c r="C58">
-        <v>3205407</v>
+        <v>3105190</v>
       </c>
       <c r="D58">
-        <v>328</v>
+        <v>211</v>
       </c>
       <c r="E58" t="s">
         <v>68</v>
       </c>
       <c r="F58">
-        <v>1340.587582817275</v>
+        <v>1277.205173011138</v>
       </c>
       <c r="G58">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H58">
         <v>27</v>
@@ -2091,25 +2091,25 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
       </c>
       <c r="C59">
-        <v>3486563</v>
+        <v>3485042</v>
       </c>
       <c r="D59">
-        <v>540</v>
+        <v>215</v>
       </c>
       <c r="E59" t="s">
         <v>68</v>
       </c>
       <c r="F59">
-        <v>1301.66880783078</v>
+        <v>1300</v>
       </c>
       <c r="G59">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H59">
         <v>28</v>
@@ -2117,25 +2117,25 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
       </c>
       <c r="C60">
-        <v>3435197</v>
+        <v>3505834</v>
       </c>
       <c r="D60">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="E60" t="s">
         <v>68</v>
       </c>
       <c r="F60">
-        <v>1301.128260983671</v>
+        <v>1321.808422621197</v>
       </c>
       <c r="G60">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H60">
         <v>29</v>
@@ -2143,25 +2143,25 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
         <v>66</v>
       </c>
       <c r="C61">
-        <v>3506079</v>
+        <v>3505750</v>
       </c>
       <c r="D61">
-        <v>1793</v>
+        <v>231</v>
       </c>
       <c r="E61" t="s">
         <v>68</v>
       </c>
       <c r="F61">
-        <v>1347.888331766129</v>
+        <v>1258.714269322547</v>
       </c>
       <c r="G61">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>30</v>
